--- a/Design/designdokument gammalt och uppdaterat/uppd designdoc.xlsx
+++ b/Design/designdokument gammalt och uppdaterat/uppd designdoc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="268">
   <si>
     <t>Objekt/förmåga</t>
   </si>
@@ -733,6 +733,159 @@
   </si>
   <si>
     <t>väggen till taket</t>
+  </si>
+  <si>
+    <t>Stix delar kan gå ut till sista pixeln på en plattform</t>
+  </si>
+  <si>
+    <t>Självförklarande</t>
+  </si>
+  <si>
+    <t>Mer karaktärsljud i dialogerna</t>
+  </si>
+  <si>
+    <t>Det ljud som spelas upp när Stix eller Meanix</t>
+  </si>
+  <si>
+    <t>pratar ska variera beroende på deras stämnings-</t>
+  </si>
+  <si>
+    <t>tillstånd</t>
+  </si>
+  <si>
+    <t>Flera ljud när Stix eller Meanix pratar</t>
+  </si>
+  <si>
+    <t>Paus efter avklarad bana</t>
+  </si>
+  <si>
+    <t>När Stix kolliderar med utgången fryser bilden och</t>
+  </si>
+  <si>
+    <t>en fanfar-musik spelas upp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En kort fanfar-musik som spelas upp efter avklarad </t>
+  </si>
+  <si>
+    <t>bana</t>
+  </si>
+  <si>
+    <t>Tiden går inte igång så fort en bana har startats</t>
+  </si>
+  <si>
+    <t>Vad som sätter igång tiden är inte satt i sten men</t>
+  </si>
+  <si>
+    <t>detta är det preliminära</t>
+  </si>
+  <si>
+    <t>Först när spelaren trycker på en knapp som får Stix att</t>
+  </si>
+  <si>
+    <t>utföra en rörelse, sätts tiden igång:</t>
+  </si>
+  <si>
+    <t>*Rörelse-knapp (hopp eller i sidled)</t>
+  </si>
+  <si>
+    <t>*Skjuta-iväg-huvudet-knapp</t>
+  </si>
+  <si>
+    <t>*Delningsknapp</t>
+  </si>
+  <si>
+    <t>Robotar i bakgrunden</t>
+  </si>
+  <si>
+    <t>Rörliga bilder i bakgrunden som grafikerna har</t>
+  </si>
+  <si>
+    <t>animerat ska sättas ut på banorna</t>
+  </si>
+  <si>
+    <t>Måtten kommer när bilderna är klara</t>
+  </si>
+  <si>
+    <t>Reminders</t>
+  </si>
+  <si>
+    <t>På det tre ursprungliga tutorialbanorna ska rörliga</t>
+  </si>
+  <si>
+    <t>bilder på robotar som utför varianter på Stix förmågor</t>
+  </si>
+  <si>
+    <t>ses.</t>
+  </si>
+  <si>
+    <t>Dessa bilder ska ligga i bakgrunden och inte vara allt</t>
+  </si>
+  <si>
+    <t>för framträdande så att det stjäl fokus från banan</t>
+  </si>
+  <si>
+    <t>Robotarna ska påminna spelaren om förmågor hen</t>
+  </si>
+  <si>
+    <t>kan utföra. Alltså ska det inte vara exakta kopior</t>
+  </si>
+  <si>
+    <t>på Stix.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolla med grafikerna. Lägg till ljudeffekter beroende </t>
+  </si>
+  <si>
+    <t>på deras animationer.</t>
+  </si>
+  <si>
+    <t>Ljuden ska inte heller vara såpass framträdande att de</t>
+  </si>
+  <si>
+    <t>fråntar fokus från banan.</t>
+  </si>
+  <si>
+    <t>Den svagaste tilen är omgjord</t>
+  </si>
+  <si>
+    <t>Efter att Stix landar på den svagaste tilen ska den</t>
+  </si>
+  <si>
+    <t>fortfarande gå att använda någon halvsekund till.</t>
+  </si>
+  <si>
+    <t>En animation som visar hur tilen smular sönder spelas</t>
+  </si>
+  <si>
+    <t>upp under denna halvsekund</t>
+  </si>
+  <si>
+    <t>Se programmerarnas ruta.</t>
+  </si>
+  <si>
+    <t>Istället för att den svagaste tilen bara försvinner ska</t>
+  </si>
+  <si>
+    <t>en animation spelas upp i någon halvsekund som visar</t>
+  </si>
+  <si>
+    <t>hur tilen smulas sönder.</t>
+  </si>
+  <si>
+    <t>Se övriga rutor.</t>
+  </si>
+  <si>
+    <t>Ett ljud som passar in på grafikernas animation där</t>
+  </si>
+  <si>
+    <t>tilen smular sönder.</t>
+  </si>
+  <si>
+    <t>Uppdaterat 5e feb</t>
+  </si>
+  <si>
+    <t>Uppdaterat 1e feb</t>
   </si>
 </sst>
 </file>
@@ -949,7 +1102,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
@@ -1020,6 +1173,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1325,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T189"/>
+  <dimension ref="A1:T299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4039,237 +4198,172 @@
       <c r="S112" s="25"/>
       <c r="T112" s="26"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
+    <row r="114" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+      <c r="A114" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B114" s="38"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="38"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A116" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="44" t="s">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="G113" s="44"/>
-      <c r="H113" s="44"/>
-      <c r="I113" s="44"/>
-      <c r="J113" s="44"/>
-      <c r="K113" s="45" t="s">
+      <c r="G116" s="44"/>
+      <c r="H116" s="44"/>
+      <c r="I116" s="44"/>
+      <c r="J116" s="44"/>
+      <c r="K116" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="L113" s="44"/>
-      <c r="M113" s="44"/>
-      <c r="N113" s="44"/>
-      <c r="O113" s="46"/>
-      <c r="P113" s="44" t="s">
+      <c r="L116" s="44"/>
+      <c r="M116" s="44"/>
+      <c r="N116" s="44"/>
+      <c r="O116" s="46"/>
+      <c r="P116" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="Q113" s="44"/>
-      <c r="R113" s="44"/>
-      <c r="S113" s="44"/>
-      <c r="T113" s="46"/>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A114" s="13" t="s">
+      <c r="Q116" s="44"/>
+      <c r="R116" s="44"/>
+      <c r="S116" s="44"/>
+      <c r="T116" s="46"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A117" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="35" t="s">
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G114" s="35"/>
-      <c r="H114" s="35"/>
-      <c r="I114" s="35"/>
-      <c r="J114" s="35"/>
-      <c r="K114" s="43"/>
-      <c r="L114" s="35"/>
-      <c r="M114" s="35"/>
-      <c r="N114" s="35"/>
-      <c r="O114" s="36"/>
-      <c r="P114" s="35"/>
-      <c r="Q114" s="35"/>
-      <c r="R114" s="35"/>
-      <c r="S114" s="35"/>
-      <c r="T114" s="36"/>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A115" s="13"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="G115" s="35"/>
-      <c r="H115" s="35"/>
-      <c r="I115" s="35"/>
-      <c r="J115" s="35"/>
-      <c r="K115" s="43"/>
-      <c r="L115" s="35"/>
-      <c r="M115" s="35"/>
-      <c r="N115" s="35"/>
-      <c r="O115" s="36"/>
-      <c r="P115" s="35"/>
-      <c r="Q115" s="35"/>
-      <c r="R115" s="35"/>
-      <c r="S115" s="35"/>
-      <c r="T115" s="36"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A116" s="14"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="47"/>
-      <c r="H116" s="47"/>
-      <c r="I116" s="47"/>
-      <c r="J116" s="47"/>
-      <c r="K116" s="48"/>
-      <c r="L116" s="47"/>
-      <c r="M116" s="47"/>
-      <c r="N116" s="47"/>
-      <c r="O116" s="49"/>
-      <c r="P116" s="47"/>
-      <c r="Q116" s="47"/>
-      <c r="R116" s="47"/>
-      <c r="S116" s="47"/>
-      <c r="T116" s="49"/>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A117" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="G117" s="44"/>
-      <c r="H117" s="44"/>
-      <c r="I117" s="44"/>
-      <c r="J117" s="44"/>
-      <c r="K117" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="L117" s="44"/>
-      <c r="M117" s="44"/>
-      <c r="N117" s="44"/>
-      <c r="O117" s="46"/>
-      <c r="P117" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q117" s="44"/>
-      <c r="R117" s="44"/>
-      <c r="S117" s="44"/>
-      <c r="T117" s="46"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="35"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="35"/>
+      <c r="M117" s="35"/>
+      <c r="N117" s="35"/>
+      <c r="O117" s="36"/>
+      <c r="P117" s="35"/>
+      <c r="Q117" s="35"/>
+      <c r="R117" s="35"/>
+      <c r="S117" s="35"/>
+      <c r="T117" s="36"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A118" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="A118" s="13"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="11"/>
       <c r="F118" s="35" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="G118" s="35"/>
       <c r="H118" s="35"/>
       <c r="I118" s="35"/>
       <c r="J118" s="35"/>
-      <c r="K118" s="43" t="s">
-        <v>145</v>
-      </c>
+      <c r="K118" s="43"/>
       <c r="L118" s="35"/>
       <c r="M118" s="35"/>
       <c r="N118" s="35"/>
       <c r="O118" s="36"/>
-      <c r="P118" s="35" t="s">
-        <v>144</v>
-      </c>
+      <c r="P118" s="35"/>
       <c r="Q118" s="35"/>
       <c r="R118" s="35"/>
       <c r="S118" s="35"/>
       <c r="T118" s="36"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A119" s="13"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="35"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="35"/>
-      <c r="J119" s="35"/>
-      <c r="K119" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="L119" s="35"/>
-      <c r="M119" s="35"/>
-      <c r="N119" s="35"/>
-      <c r="O119" s="36"/>
-      <c r="P119" s="35"/>
-      <c r="Q119" s="35"/>
-      <c r="R119" s="35"/>
-      <c r="S119" s="35"/>
-      <c r="T119" s="36"/>
+      <c r="A119" s="14"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="47"/>
+      <c r="K119" s="48"/>
+      <c r="L119" s="47"/>
+      <c r="M119" s="47"/>
+      <c r="N119" s="47"/>
+      <c r="O119" s="49"/>
+      <c r="P119" s="47"/>
+      <c r="Q119" s="47"/>
+      <c r="R119" s="47"/>
+      <c r="S119" s="47"/>
+      <c r="T119" s="49"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A120" s="13"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G120" s="35"/>
-      <c r="H120" s="35"/>
-      <c r="I120" s="35"/>
-      <c r="J120" s="35"/>
-      <c r="K120" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="L120" s="35"/>
-      <c r="M120" s="35"/>
-      <c r="N120" s="35"/>
-      <c r="O120" s="36"/>
-      <c r="P120" s="35"/>
-      <c r="Q120" s="35"/>
-      <c r="R120" s="35"/>
-      <c r="S120" s="35"/>
-      <c r="T120" s="36"/>
+      <c r="A120" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G120" s="44"/>
+      <c r="H120" s="44"/>
+      <c r="I120" s="44"/>
+      <c r="J120" s="44"/>
+      <c r="K120" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="L120" s="44"/>
+      <c r="M120" s="44"/>
+      <c r="N120" s="44"/>
+      <c r="O120" s="46"/>
+      <c r="P120" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q120" s="44"/>
+      <c r="R120" s="44"/>
+      <c r="S120" s="44"/>
+      <c r="T120" s="46"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A121" s="13"/>
+      <c r="A121" s="13" t="s">
+        <v>177</v>
+      </c>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
       <c r="E121" s="11"/>
       <c r="F121" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G121" s="35"/>
       <c r="H121" s="35"/>
       <c r="I121" s="35"/>
       <c r="J121" s="35"/>
-      <c r="K121" s="43"/>
+      <c r="K121" s="43" t="s">
+        <v>145</v>
+      </c>
       <c r="L121" s="35"/>
       <c r="M121" s="35"/>
       <c r="N121" s="35"/>
       <c r="O121" s="36"/>
-      <c r="P121" s="35"/>
+      <c r="P121" s="35" t="s">
+        <v>144</v>
+      </c>
       <c r="Q121" s="35"/>
       <c r="R121" s="35"/>
       <c r="S121" s="35"/>
@@ -4287,7 +4381,7 @@
       <c r="I122" s="35"/>
       <c r="J122" s="35"/>
       <c r="K122" s="43" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L122" s="35"/>
       <c r="M122" s="35"/>
@@ -4306,13 +4400,15 @@
       <c r="D123" s="10"/>
       <c r="E123" s="11"/>
       <c r="F123" s="35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G123" s="35"/>
       <c r="H123" s="35"/>
       <c r="I123" s="35"/>
       <c r="J123" s="35"/>
-      <c r="K123" s="43"/>
+      <c r="K123" s="43" t="s">
+        <v>147</v>
+      </c>
       <c r="L123" s="35"/>
       <c r="M123" s="35"/>
       <c r="N123" s="35"/>
@@ -4330,7 +4426,7 @@
       <c r="D124" s="10"/>
       <c r="E124" s="11"/>
       <c r="F124" s="35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G124" s="35"/>
       <c r="H124" s="35"/>
@@ -4348,56 +4444,52 @@
       <c r="T124" s="36"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A125" s="14"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="47"/>
-      <c r="H125" s="47"/>
-      <c r="I125" s="47"/>
-      <c r="J125" s="47"/>
-      <c r="K125" s="48"/>
-      <c r="L125" s="47"/>
-      <c r="M125" s="47"/>
-      <c r="N125" s="47"/>
-      <c r="O125" s="49"/>
-      <c r="P125" s="47"/>
-      <c r="Q125" s="47"/>
-      <c r="R125" s="47"/>
-      <c r="S125" s="47"/>
-      <c r="T125" s="49"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="35"/>
+      <c r="J125" s="35"/>
+      <c r="K125" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L125" s="35"/>
+      <c r="M125" s="35"/>
+      <c r="N125" s="35"/>
+      <c r="O125" s="36"/>
+      <c r="P125" s="35"/>
+      <c r="Q125" s="35"/>
+      <c r="R125" s="35"/>
+      <c r="S125" s="35"/>
+      <c r="T125" s="36"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A126" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="G126" s="44"/>
-      <c r="H126" s="44"/>
-      <c r="I126" s="44"/>
-      <c r="J126" s="44"/>
-      <c r="K126" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="L126" s="44"/>
-      <c r="M126" s="44"/>
-      <c r="N126" s="44"/>
-      <c r="O126" s="46"/>
-      <c r="P126" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q126" s="44"/>
-      <c r="R126" s="44"/>
-      <c r="S126" s="44"/>
-      <c r="T126" s="46"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="35"/>
+      <c r="J126" s="35"/>
+      <c r="K126" s="43"/>
+      <c r="L126" s="35"/>
+      <c r="M126" s="35"/>
+      <c r="N126" s="35"/>
+      <c r="O126" s="36"/>
+      <c r="P126" s="35"/>
+      <c r="Q126" s="35"/>
+      <c r="R126" s="35"/>
+      <c r="S126" s="35"/>
+      <c r="T126" s="36"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
@@ -4406,7 +4498,7 @@
       <c r="D127" s="10"/>
       <c r="E127" s="11"/>
       <c r="F127" s="35" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G127" s="35"/>
       <c r="H127" s="35"/>
@@ -4424,52 +4516,56 @@
       <c r="T127" s="36"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A128" s="13"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="35"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="35"/>
-      <c r="I128" s="35"/>
-      <c r="J128" s="35"/>
-      <c r="K128" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="L128" s="35"/>
-      <c r="M128" s="35"/>
-      <c r="N128" s="35"/>
-      <c r="O128" s="36"/>
-      <c r="P128" s="35"/>
-      <c r="Q128" s="35"/>
-      <c r="R128" s="35"/>
-      <c r="S128" s="35"/>
-      <c r="T128" s="36"/>
+      <c r="A128" s="14"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="47"/>
+      <c r="I128" s="47"/>
+      <c r="J128" s="47"/>
+      <c r="K128" s="48"/>
+      <c r="L128" s="47"/>
+      <c r="M128" s="47"/>
+      <c r="N128" s="47"/>
+      <c r="O128" s="49"/>
+      <c r="P128" s="47"/>
+      <c r="Q128" s="47"/>
+      <c r="R128" s="47"/>
+      <c r="S128" s="47"/>
+      <c r="T128" s="49"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A129" s="13"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="35"/>
-      <c r="G129" s="35"/>
-      <c r="H129" s="35"/>
-      <c r="I129" s="35"/>
-      <c r="J129" s="35"/>
-      <c r="K129" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="L129" s="35"/>
-      <c r="M129" s="35"/>
-      <c r="N129" s="35"/>
-      <c r="O129" s="36"/>
-      <c r="P129" s="35"/>
-      <c r="Q129" s="35"/>
-      <c r="R129" s="35"/>
-      <c r="S129" s="35"/>
-      <c r="T129" s="36"/>
+      <c r="A129" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="G129" s="44"/>
+      <c r="H129" s="44"/>
+      <c r="I129" s="44"/>
+      <c r="J129" s="44"/>
+      <c r="K129" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="L129" s="44"/>
+      <c r="M129" s="44"/>
+      <c r="N129" s="44"/>
+      <c r="O129" s="46"/>
+      <c r="P129" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q129" s="44"/>
+      <c r="R129" s="44"/>
+      <c r="S129" s="44"/>
+      <c r="T129" s="46"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="13"/>
@@ -4477,7 +4573,9 @@
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
       <c r="E130" s="11"/>
-      <c r="F130" s="35"/>
+      <c r="F130" s="35" t="s">
+        <v>151</v>
+      </c>
       <c r="G130" s="35"/>
       <c r="H130" s="35"/>
       <c r="I130" s="35"/>
@@ -4505,7 +4603,7 @@
       <c r="I131" s="35"/>
       <c r="J131" s="35"/>
       <c r="K131" s="43" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L131" s="35"/>
       <c r="M131" s="35"/>
@@ -4528,7 +4626,9 @@
       <c r="H132" s="35"/>
       <c r="I132" s="35"/>
       <c r="J132" s="35"/>
-      <c r="K132" s="43"/>
+      <c r="K132" s="43" t="s">
+        <v>155</v>
+      </c>
       <c r="L132" s="35"/>
       <c r="M132" s="35"/>
       <c r="N132" s="35"/>
@@ -4550,9 +4650,7 @@
       <c r="H133" s="35"/>
       <c r="I133" s="35"/>
       <c r="J133" s="35"/>
-      <c r="K133" s="43" t="s">
-        <v>156</v>
-      </c>
+      <c r="K133" s="43"/>
       <c r="L133" s="35"/>
       <c r="M133" s="35"/>
       <c r="N133" s="35"/>
@@ -4575,7 +4673,7 @@
       <c r="I134" s="35"/>
       <c r="J134" s="35"/>
       <c r="K134" s="43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L134" s="35"/>
       <c r="M134" s="35"/>
@@ -4621,7 +4719,7 @@
       <c r="I136" s="35"/>
       <c r="J136" s="35"/>
       <c r="K136" s="43" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L136" s="35"/>
       <c r="M136" s="35"/>
@@ -4634,61 +4732,53 @@
       <c r="T136" s="36"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A137" s="14"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
-      <c r="H137" s="47"/>
-      <c r="I137" s="47"/>
-      <c r="J137" s="47"/>
-      <c r="K137" s="48"/>
-      <c r="L137" s="47"/>
-      <c r="M137" s="47"/>
-      <c r="N137" s="47"/>
-      <c r="O137" s="49"/>
-      <c r="P137" s="47"/>
-      <c r="Q137" s="47"/>
-      <c r="R137" s="47"/>
-      <c r="S137" s="47"/>
-      <c r="T137" s="49"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="35"/>
+      <c r="I137" s="35"/>
+      <c r="J137" s="35"/>
+      <c r="K137" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="L137" s="35"/>
+      <c r="M137" s="35"/>
+      <c r="N137" s="35"/>
+      <c r="O137" s="36"/>
+      <c r="P137" s="35"/>
+      <c r="Q137" s="35"/>
+      <c r="R137" s="35"/>
+      <c r="S137" s="35"/>
+      <c r="T137" s="36"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="G138" s="44"/>
-      <c r="H138" s="44"/>
-      <c r="I138" s="44"/>
-      <c r="J138" s="44"/>
-      <c r="K138" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="L138" s="44"/>
-      <c r="M138" s="44"/>
-      <c r="N138" s="44"/>
-      <c r="O138" s="46"/>
-      <c r="P138" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q138" s="44"/>
-      <c r="R138" s="44"/>
-      <c r="S138" s="44"/>
-      <c r="T138" s="46"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="35"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="35"/>
+      <c r="J138" s="35"/>
+      <c r="K138" s="43"/>
+      <c r="L138" s="35"/>
+      <c r="M138" s="35"/>
+      <c r="N138" s="35"/>
+      <c r="O138" s="36"/>
+      <c r="P138" s="35"/>
+      <c r="Q138" s="35"/>
+      <c r="R138" s="35"/>
+      <c r="S138" s="35"/>
+      <c r="T138" s="36"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A139" s="13" t="s">
-        <v>171</v>
-      </c>
+      <c r="A139" s="13"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
@@ -4699,7 +4789,7 @@
       <c r="I139" s="35"/>
       <c r="J139" s="35"/>
       <c r="K139" s="43" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="L139" s="35"/>
       <c r="M139" s="35"/>
@@ -4712,55 +4802,61 @@
       <c r="T139" s="36"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A140" s="13"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="G140" s="35"/>
-      <c r="H140" s="35"/>
-      <c r="I140" s="35"/>
-      <c r="J140" s="35"/>
-      <c r="K140" s="43"/>
-      <c r="L140" s="35"/>
-      <c r="M140" s="35"/>
-      <c r="N140" s="35"/>
-      <c r="O140" s="36"/>
-      <c r="P140" s="35"/>
-      <c r="Q140" s="35"/>
-      <c r="R140" s="35"/>
-      <c r="S140" s="35"/>
-      <c r="T140" s="36"/>
+      <c r="A140" s="14"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="47"/>
+      <c r="G140" s="47"/>
+      <c r="H140" s="47"/>
+      <c r="I140" s="47"/>
+      <c r="J140" s="47"/>
+      <c r="K140" s="48"/>
+      <c r="L140" s="47"/>
+      <c r="M140" s="47"/>
+      <c r="N140" s="47"/>
+      <c r="O140" s="49"/>
+      <c r="P140" s="47"/>
+      <c r="Q140" s="47"/>
+      <c r="R140" s="47"/>
+      <c r="S140" s="47"/>
+      <c r="T140" s="49"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A141" s="13"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="G141" s="35"/>
-      <c r="H141" s="35"/>
-      <c r="I141" s="35"/>
-      <c r="J141" s="35"/>
-      <c r="K141" s="43"/>
-      <c r="L141" s="35"/>
-      <c r="M141" s="35"/>
-      <c r="N141" s="35"/>
-      <c r="O141" s="36"/>
-      <c r="P141" s="35"/>
-      <c r="Q141" s="35"/>
-      <c r="R141" s="35"/>
-      <c r="S141" s="35"/>
-      <c r="T141" s="36"/>
+      <c r="A141" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="G141" s="44"/>
+      <c r="H141" s="44"/>
+      <c r="I141" s="44"/>
+      <c r="J141" s="44"/>
+      <c r="K141" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="L141" s="44"/>
+      <c r="M141" s="44"/>
+      <c r="N141" s="44"/>
+      <c r="O141" s="46"/>
+      <c r="P141" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q141" s="44"/>
+      <c r="R141" s="44"/>
+      <c r="S141" s="44"/>
+      <c r="T141" s="46"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A142" s="13"/>
+      <c r="A142" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
@@ -4770,7 +4866,9 @@
       <c r="H142" s="35"/>
       <c r="I142" s="35"/>
       <c r="J142" s="35"/>
-      <c r="K142" s="43"/>
+      <c r="K142" s="43" t="s">
+        <v>173</v>
+      </c>
       <c r="L142" s="35"/>
       <c r="M142" s="35"/>
       <c r="N142" s="35"/>
@@ -4788,7 +4886,7 @@
       <c r="D143" s="10"/>
       <c r="E143" s="11"/>
       <c r="F143" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G143" s="35"/>
       <c r="H143" s="35"/>
@@ -4812,7 +4910,7 @@
       <c r="D144" s="10"/>
       <c r="E144" s="11"/>
       <c r="F144" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G144" s="35"/>
       <c r="H144" s="35"/>
@@ -4858,7 +4956,7 @@
       <c r="D146" s="10"/>
       <c r="E146" s="11"/>
       <c r="F146" s="35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G146" s="35"/>
       <c r="H146" s="35"/>
@@ -4882,7 +4980,7 @@
       <c r="D147" s="10"/>
       <c r="E147" s="11"/>
       <c r="F147" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G147" s="35"/>
       <c r="H147" s="35"/>
@@ -4928,7 +5026,7 @@
       <c r="D149" s="10"/>
       <c r="E149" s="11"/>
       <c r="F149" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G149" s="35"/>
       <c r="H149" s="35"/>
@@ -4952,7 +5050,7 @@
       <c r="D150" s="10"/>
       <c r="E150" s="11"/>
       <c r="F150" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G150" s="35"/>
       <c r="H150" s="35"/>
@@ -4975,9 +5073,7 @@
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
       <c r="E151" s="11"/>
-      <c r="F151" s="35" t="s">
-        <v>170</v>
-      </c>
+      <c r="F151" s="35"/>
       <c r="G151" s="35"/>
       <c r="H151" s="35"/>
       <c r="I151" s="35"/>
@@ -4994,66 +5090,62 @@
       <c r="T151" s="36"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A152" s="14"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="47"/>
-      <c r="G152" s="47"/>
-      <c r="H152" s="47"/>
-      <c r="I152" s="47"/>
-      <c r="J152" s="47"/>
-      <c r="K152" s="48"/>
-      <c r="L152" s="47"/>
-      <c r="M152" s="47"/>
-      <c r="N152" s="47"/>
-      <c r="O152" s="49"/>
-      <c r="P152" s="47"/>
-      <c r="Q152" s="47"/>
-      <c r="R152" s="47"/>
-      <c r="S152" s="47"/>
-      <c r="T152" s="49"/>
+      <c r="A152" s="13"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G152" s="35"/>
+      <c r="H152" s="35"/>
+      <c r="I152" s="35"/>
+      <c r="J152" s="35"/>
+      <c r="K152" s="43"/>
+      <c r="L152" s="35"/>
+      <c r="M152" s="35"/>
+      <c r="N152" s="35"/>
+      <c r="O152" s="36"/>
+      <c r="P152" s="35"/>
+      <c r="Q152" s="35"/>
+      <c r="R152" s="35"/>
+      <c r="S152" s="35"/>
+      <c r="T152" s="36"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="G153" s="44"/>
-      <c r="H153" s="44"/>
-      <c r="I153" s="44"/>
-      <c r="J153" s="44"/>
-      <c r="K153" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="L153" s="44"/>
-      <c r="M153" s="44"/>
-      <c r="N153" s="44"/>
-      <c r="O153" s="46"/>
-      <c r="P153" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q153" s="44"/>
-      <c r="R153" s="44"/>
-      <c r="S153" s="44"/>
-      <c r="T153" s="46"/>
+      <c r="A153" s="13"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G153" s="35"/>
+      <c r="H153" s="35"/>
+      <c r="I153" s="35"/>
+      <c r="J153" s="35"/>
+      <c r="K153" s="43"/>
+      <c r="L153" s="35"/>
+      <c r="M153" s="35"/>
+      <c r="N153" s="35"/>
+      <c r="O153" s="36"/>
+      <c r="P153" s="35"/>
+      <c r="Q153" s="35"/>
+      <c r="R153" s="35"/>
+      <c r="S153" s="35"/>
+      <c r="T153" s="36"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A154" s="13" t="s">
-        <v>182</v>
-      </c>
+      <c r="A154" s="13"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
       <c r="E154" s="11"/>
-      <c r="F154" s="35"/>
+      <c r="F154" s="35" t="s">
+        <v>170</v>
+      </c>
       <c r="G154" s="35"/>
       <c r="H154" s="35"/>
       <c r="I154" s="35"/>
@@ -5093,14 +5185,14 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="2"/>
       <c r="F156" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G156" s="44"/>
       <c r="H156" s="44"/>
@@ -5114,7 +5206,7 @@
       <c r="N156" s="44"/>
       <c r="O156" s="46"/>
       <c r="P156" s="44" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="Q156" s="44"/>
       <c r="R156" s="44"/>
@@ -5123,15 +5215,13 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="11"/>
-      <c r="F157" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="F157" s="35"/>
       <c r="G157" s="35"/>
       <c r="H157" s="35"/>
       <c r="I157" s="35"/>
@@ -5141,101 +5231,101 @@
       <c r="M157" s="35"/>
       <c r="N157" s="35"/>
       <c r="O157" s="36"/>
-      <c r="P157" s="35" t="s">
-        <v>187</v>
-      </c>
+      <c r="P157" s="35"/>
       <c r="Q157" s="35"/>
       <c r="R157" s="35"/>
       <c r="S157" s="35"/>
       <c r="T157" s="36"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A158" s="13"/>
-      <c r="B158" s="10"/>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="G158" s="35"/>
-      <c r="H158" s="35"/>
-      <c r="I158" s="35"/>
-      <c r="J158" s="35"/>
-      <c r="K158" s="43"/>
-      <c r="L158" s="35"/>
-      <c r="M158" s="35"/>
-      <c r="N158" s="35"/>
-      <c r="O158" s="36"/>
-      <c r="P158" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q158" s="35"/>
-      <c r="R158" s="35"/>
-      <c r="S158" s="35"/>
-      <c r="T158" s="36"/>
+      <c r="A158" s="14"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="47"/>
+      <c r="G158" s="47"/>
+      <c r="H158" s="47"/>
+      <c r="I158" s="47"/>
+      <c r="J158" s="47"/>
+      <c r="K158" s="48"/>
+      <c r="L158" s="47"/>
+      <c r="M158" s="47"/>
+      <c r="N158" s="47"/>
+      <c r="O158" s="49"/>
+      <c r="P158" s="47"/>
+      <c r="Q158" s="47"/>
+      <c r="R158" s="47"/>
+      <c r="S158" s="47"/>
+      <c r="T158" s="49"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="14"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="47"/>
-      <c r="G159" s="47"/>
-      <c r="H159" s="47"/>
-      <c r="I159" s="47"/>
-      <c r="J159" s="47"/>
-      <c r="K159" s="48"/>
-      <c r="L159" s="47"/>
-      <c r="M159" s="47"/>
-      <c r="N159" s="47"/>
-      <c r="O159" s="49"/>
-      <c r="P159" s="47"/>
-      <c r="Q159" s="47"/>
-      <c r="R159" s="47"/>
-      <c r="S159" s="47"/>
-      <c r="T159" s="49"/>
+      <c r="A159" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="G159" s="44"/>
+      <c r="H159" s="44"/>
+      <c r="I159" s="44"/>
+      <c r="J159" s="44"/>
+      <c r="K159" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="L159" s="44"/>
+      <c r="M159" s="44"/>
+      <c r="N159" s="44"/>
+      <c r="O159" s="46"/>
+      <c r="P159" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q159" s="44"/>
+      <c r="R159" s="44"/>
+      <c r="S159" s="44"/>
+      <c r="T159" s="46"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A160" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="G160" s="44"/>
-      <c r="H160" s="44"/>
-      <c r="I160" s="44"/>
-      <c r="J160" s="44"/>
-      <c r="K160" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="L160" s="44"/>
-      <c r="M160" s="44"/>
-      <c r="N160" s="44"/>
-      <c r="O160" s="46"/>
-      <c r="P160" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q160" s="44"/>
-      <c r="R160" s="44"/>
-      <c r="S160" s="44"/>
-      <c r="T160" s="46"/>
+      <c r="A160" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="G160" s="35"/>
+      <c r="H160" s="35"/>
+      <c r="I160" s="35"/>
+      <c r="J160" s="35"/>
+      <c r="K160" s="43"/>
+      <c r="L160" s="35"/>
+      <c r="M160" s="35"/>
+      <c r="N160" s="35"/>
+      <c r="O160" s="36"/>
+      <c r="P160" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q160" s="35"/>
+      <c r="R160" s="35"/>
+      <c r="S160" s="35"/>
+      <c r="T160" s="36"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A161" s="13" t="s">
-        <v>214</v>
-      </c>
+      <c r="A161" s="13"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="43"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="35" t="s">
+        <v>192</v>
+      </c>
       <c r="G161" s="35"/>
       <c r="H161" s="35"/>
       <c r="I161" s="35"/>
@@ -5245,66 +5335,74 @@
       <c r="M161" s="35"/>
       <c r="N161" s="35"/>
       <c r="O161" s="36"/>
-      <c r="P161" s="35"/>
+      <c r="P161" s="35" t="s">
+        <v>188</v>
+      </c>
       <c r="Q161" s="35"/>
       <c r="R161" s="35"/>
       <c r="S161" s="35"/>
       <c r="T161" s="36"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A162" s="13"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="43"/>
-      <c r="G162" s="35"/>
-      <c r="H162" s="35"/>
-      <c r="I162" s="35"/>
-      <c r="J162" s="35"/>
-      <c r="K162" s="43"/>
-      <c r="L162" s="35"/>
-      <c r="M162" s="35"/>
-      <c r="N162" s="35"/>
-      <c r="O162" s="36"/>
-      <c r="P162" s="35"/>
-      <c r="Q162" s="35"/>
-      <c r="R162" s="35"/>
-      <c r="S162" s="35"/>
-      <c r="T162" s="36"/>
+      <c r="A162" s="14"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="47"/>
+      <c r="G162" s="47"/>
+      <c r="H162" s="47"/>
+      <c r="I162" s="47"/>
+      <c r="J162" s="47"/>
+      <c r="K162" s="48"/>
+      <c r="L162" s="47"/>
+      <c r="M162" s="47"/>
+      <c r="N162" s="47"/>
+      <c r="O162" s="49"/>
+      <c r="P162" s="47"/>
+      <c r="Q162" s="47"/>
+      <c r="R162" s="47"/>
+      <c r="S162" s="47"/>
+      <c r="T162" s="49"/>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A163" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="B163" s="55"/>
-      <c r="C163" s="55"/>
-      <c r="D163" s="55"/>
-      <c r="E163" s="55"/>
-      <c r="F163" s="43"/>
-      <c r="G163" s="35"/>
-      <c r="H163" s="35"/>
-      <c r="I163" s="35"/>
-      <c r="J163" s="35"/>
-      <c r="K163" s="43"/>
-      <c r="L163" s="35"/>
-      <c r="M163" s="35"/>
-      <c r="N163" s="35"/>
-      <c r="O163" s="36"/>
-      <c r="P163" s="35"/>
-      <c r="Q163" s="35"/>
-      <c r="R163" s="35"/>
-      <c r="S163" s="35"/>
-      <c r="T163" s="36"/>
+      <c r="A163" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="G163" s="44"/>
+      <c r="H163" s="44"/>
+      <c r="I163" s="44"/>
+      <c r="J163" s="44"/>
+      <c r="K163" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="L163" s="44"/>
+      <c r="M163" s="44"/>
+      <c r="N163" s="44"/>
+      <c r="O163" s="46"/>
+      <c r="P163" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q163" s="44"/>
+      <c r="R163" s="44"/>
+      <c r="S163" s="44"/>
+      <c r="T163" s="46"/>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A164" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="B164" s="55"/>
-      <c r="C164" s="55"/>
-      <c r="D164" s="55"/>
-      <c r="E164" s="55"/>
+      <c r="A164" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
       <c r="F164" s="43"/>
       <c r="G164" s="35"/>
       <c r="H164" s="35"/>
@@ -5322,7 +5420,7 @@
       <c r="T164" s="36"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A165" s="52"/>
+      <c r="A165" s="13"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
@@ -5344,66 +5442,60 @@
       <c r="T165" s="36"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A166" s="53"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="48"/>
-      <c r="G166" s="47"/>
-      <c r="H166" s="47"/>
-      <c r="I166" s="47"/>
-      <c r="J166" s="47"/>
-      <c r="K166" s="48"/>
-      <c r="L166" s="47"/>
-      <c r="M166" s="47"/>
-      <c r="N166" s="47"/>
-      <c r="O166" s="49"/>
-      <c r="P166" s="47"/>
-      <c r="Q166" s="47"/>
-      <c r="R166" s="47"/>
-      <c r="S166" s="47"/>
-      <c r="T166" s="49"/>
+      <c r="A166" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="B166" s="55"/>
+      <c r="C166" s="55"/>
+      <c r="D166" s="55"/>
+      <c r="E166" s="55"/>
+      <c r="F166" s="43"/>
+      <c r="G166" s="35"/>
+      <c r="H166" s="35"/>
+      <c r="I166" s="35"/>
+      <c r="J166" s="35"/>
+      <c r="K166" s="43"/>
+      <c r="L166" s="35"/>
+      <c r="M166" s="35"/>
+      <c r="N166" s="35"/>
+      <c r="O166" s="36"/>
+      <c r="P166" s="35"/>
+      <c r="Q166" s="35"/>
+      <c r="R166" s="35"/>
+      <c r="S166" s="35"/>
+      <c r="T166" s="36"/>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A167" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="35" t="s">
-        <v>197</v>
-      </c>
+      <c r="A167" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B167" s="55"/>
+      <c r="C167" s="55"/>
+      <c r="D167" s="55"/>
+      <c r="E167" s="55"/>
+      <c r="F167" s="43"/>
       <c r="G167" s="35"/>
       <c r="H167" s="35"/>
       <c r="I167" s="35"/>
       <c r="J167" s="35"/>
-      <c r="K167" s="43" t="s">
-        <v>159</v>
-      </c>
+      <c r="K167" s="43"/>
       <c r="L167" s="35"/>
       <c r="M167" s="35"/>
       <c r="N167" s="35"/>
       <c r="O167" s="36"/>
-      <c r="P167" s="35" t="s">
-        <v>159</v>
-      </c>
+      <c r="P167" s="35"/>
       <c r="Q167" s="35"/>
       <c r="R167" s="35"/>
       <c r="S167" s="35"/>
       <c r="T167" s="36"/>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A168" s="13"/>
+      <c r="A168" s="52"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
-      <c r="E168" s="11"/>
-      <c r="F168" s="35" t="s">
-        <v>198</v>
-      </c>
+      <c r="E168" s="10"/>
+      <c r="F168" s="43"/>
       <c r="G168" s="35"/>
       <c r="H168" s="35"/>
       <c r="I168" s="35"/>
@@ -5420,63 +5512,65 @@
       <c r="T168" s="36"/>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A169" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="B169" s="10"/>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="11"/>
-      <c r="F169" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="G169" s="35"/>
-      <c r="H169" s="35"/>
-      <c r="I169" s="35"/>
-      <c r="J169" s="35"/>
-      <c r="K169" s="43"/>
-      <c r="L169" s="35"/>
-      <c r="M169" s="35"/>
-      <c r="N169" s="35"/>
-      <c r="O169" s="36"/>
-      <c r="P169" s="35"/>
-      <c r="Q169" s="35"/>
-      <c r="R169" s="35"/>
-      <c r="S169" s="35"/>
-      <c r="T169" s="36"/>
+      <c r="A169" s="53"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="48"/>
+      <c r="G169" s="47"/>
+      <c r="H169" s="47"/>
+      <c r="I169" s="47"/>
+      <c r="J169" s="47"/>
+      <c r="K169" s="48"/>
+      <c r="L169" s="47"/>
+      <c r="M169" s="47"/>
+      <c r="N169" s="47"/>
+      <c r="O169" s="49"/>
+      <c r="P169" s="47"/>
+      <c r="Q169" s="47"/>
+      <c r="R169" s="47"/>
+      <c r="S169" s="47"/>
+      <c r="T169" s="49"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="11"/>
-      <c r="F170" s="35"/>
+      <c r="A170" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="35" t="s">
+        <v>197</v>
+      </c>
       <c r="G170" s="35"/>
       <c r="H170" s="35"/>
       <c r="I170" s="35"/>
       <c r="J170" s="35"/>
-      <c r="K170" s="43"/>
+      <c r="K170" s="43" t="s">
+        <v>159</v>
+      </c>
       <c r="L170" s="35"/>
       <c r="M170" s="35"/>
       <c r="N170" s="35"/>
       <c r="O170" s="36"/>
-      <c r="P170" s="35"/>
+      <c r="P170" s="35" t="s">
+        <v>159</v>
+      </c>
       <c r="Q170" s="35"/>
       <c r="R170" s="35"/>
       <c r="S170" s="35"/>
       <c r="T170" s="36"/>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A171" s="52"/>
+      <c r="A171" s="13"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="11"/>
       <c r="F171" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G171" s="35"/>
       <c r="H171" s="35"/>
@@ -5494,13 +5588,15 @@
       <c r="T171" s="36"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A172" s="52"/>
+      <c r="A172" s="54" t="s">
+        <v>196</v>
+      </c>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="11"/>
       <c r="F172" s="35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G172" s="35"/>
       <c r="H172" s="35"/>
@@ -5518,14 +5614,14 @@
       <c r="T172" s="36"/>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A173" s="52"/>
+      <c r="A173" s="54" t="s">
+        <v>195</v>
+      </c>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
       <c r="E173" s="11"/>
-      <c r="F173" s="35" t="s">
-        <v>200</v>
-      </c>
+      <c r="F173" s="35"/>
       <c r="G173" s="35"/>
       <c r="H173" s="35"/>
       <c r="I173" s="35"/>
@@ -5548,7 +5644,7 @@
       <c r="D174" s="10"/>
       <c r="E174" s="11"/>
       <c r="F174" s="35" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G174" s="35"/>
       <c r="H174" s="35"/>
@@ -5572,7 +5668,7 @@
       <c r="D175" s="10"/>
       <c r="E175" s="11"/>
       <c r="F175" s="35" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G175" s="35"/>
       <c r="H175" s="35"/>
@@ -5595,7 +5691,9 @@
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="11"/>
-      <c r="F176" s="35"/>
+      <c r="F176" s="35" t="s">
+        <v>200</v>
+      </c>
       <c r="G176" s="35"/>
       <c r="H176" s="35"/>
       <c r="I176" s="35"/>
@@ -5618,7 +5716,7 @@
       <c r="D177" s="10"/>
       <c r="E177" s="11"/>
       <c r="F177" s="35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G177" s="35"/>
       <c r="H177" s="35"/>
@@ -5642,7 +5740,7 @@
       <c r="D178" s="10"/>
       <c r="E178" s="11"/>
       <c r="F178" s="35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G178" s="35"/>
       <c r="H178" s="35"/>
@@ -5665,9 +5763,7 @@
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
       <c r="E179" s="11"/>
-      <c r="F179" s="35" t="s">
-        <v>208</v>
-      </c>
+      <c r="F179" s="35"/>
       <c r="G179" s="35"/>
       <c r="H179" s="35"/>
       <c r="I179" s="35"/>
@@ -5690,7 +5786,7 @@
       <c r="D180" s="10"/>
       <c r="E180" s="11"/>
       <c r="F180" s="35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G180" s="35"/>
       <c r="H180" s="35"/>
@@ -5713,7 +5809,9 @@
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
       <c r="E181" s="11"/>
-      <c r="F181" s="35"/>
+      <c r="F181" s="35" t="s">
+        <v>207</v>
+      </c>
       <c r="G181" s="35"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
@@ -5736,7 +5834,7 @@
       <c r="D182" s="10"/>
       <c r="E182" s="11"/>
       <c r="F182" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G182" s="35"/>
       <c r="H182" s="35"/>
@@ -5760,7 +5858,7 @@
       <c r="D183" s="10"/>
       <c r="E183" s="11"/>
       <c r="F183" s="35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G183" s="35"/>
       <c r="H183" s="35"/>
@@ -5783,9 +5881,7 @@
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
       <c r="E184" s="11"/>
-      <c r="F184" s="35" t="s">
-        <v>213</v>
-      </c>
+      <c r="F184" s="35"/>
       <c r="G184" s="35"/>
       <c r="H184" s="35"/>
       <c r="I184" s="35"/>
@@ -5807,7 +5903,9 @@
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
       <c r="E185" s="11"/>
-      <c r="F185" s="35"/>
+      <c r="F185" s="35" t="s">
+        <v>210</v>
+      </c>
       <c r="G185" s="35"/>
       <c r="H185" s="35"/>
       <c r="I185" s="35"/>
@@ -5830,7 +5928,7 @@
       <c r="D186" s="10"/>
       <c r="E186" s="11"/>
       <c r="F186" s="35" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G186" s="35"/>
       <c r="H186" s="35"/>
@@ -5854,7 +5952,7 @@
       <c r="D187" s="10"/>
       <c r="E187" s="11"/>
       <c r="F187" s="35" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G187" s="35"/>
       <c r="H187" s="35"/>
@@ -5877,9 +5975,7 @@
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
       <c r="E188" s="11"/>
-      <c r="F188" s="35" t="s">
-        <v>212</v>
-      </c>
+      <c r="F188" s="35"/>
       <c r="G188" s="35"/>
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
@@ -5896,26 +5992,2483 @@
       <c r="T188" s="36"/>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A189" s="53"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="47"/>
-      <c r="G189" s="47"/>
-      <c r="H189" s="47"/>
-      <c r="I189" s="47"/>
-      <c r="J189" s="47"/>
-      <c r="K189" s="48"/>
-      <c r="L189" s="47"/>
-      <c r="M189" s="47"/>
-      <c r="N189" s="47"/>
-      <c r="O189" s="49"/>
-      <c r="P189" s="47"/>
-      <c r="Q189" s="47"/>
-      <c r="R189" s="47"/>
-      <c r="S189" s="47"/>
-      <c r="T189" s="49"/>
+      <c r="A189" s="52"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="G189" s="35"/>
+      <c r="H189" s="35"/>
+      <c r="I189" s="35"/>
+      <c r="J189" s="35"/>
+      <c r="K189" s="43"/>
+      <c r="L189" s="35"/>
+      <c r="M189" s="35"/>
+      <c r="N189" s="35"/>
+      <c r="O189" s="36"/>
+      <c r="P189" s="35"/>
+      <c r="Q189" s="35"/>
+      <c r="R189" s="35"/>
+      <c r="S189" s="35"/>
+      <c r="T189" s="36"/>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A190" s="52"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="G190" s="35"/>
+      <c r="H190" s="35"/>
+      <c r="I190" s="35"/>
+      <c r="J190" s="35"/>
+      <c r="K190" s="43"/>
+      <c r="L190" s="35"/>
+      <c r="M190" s="35"/>
+      <c r="N190" s="35"/>
+      <c r="O190" s="36"/>
+      <c r="P190" s="35"/>
+      <c r="Q190" s="35"/>
+      <c r="R190" s="35"/>
+      <c r="S190" s="35"/>
+      <c r="T190" s="36"/>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A191" s="52"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="G191" s="35"/>
+      <c r="H191" s="35"/>
+      <c r="I191" s="35"/>
+      <c r="J191" s="35"/>
+      <c r="K191" s="43"/>
+      <c r="L191" s="35"/>
+      <c r="M191" s="35"/>
+      <c r="N191" s="35"/>
+      <c r="O191" s="36"/>
+      <c r="P191" s="35"/>
+      <c r="Q191" s="35"/>
+      <c r="R191" s="35"/>
+      <c r="S191" s="35"/>
+      <c r="T191" s="36"/>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A192" s="53"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="47"/>
+      <c r="G192" s="47"/>
+      <c r="H192" s="47"/>
+      <c r="I192" s="47"/>
+      <c r="J192" s="47"/>
+      <c r="K192" s="48"/>
+      <c r="L192" s="47"/>
+      <c r="M192" s="47"/>
+      <c r="N192" s="47"/>
+      <c r="O192" s="49"/>
+      <c r="P192" s="47"/>
+      <c r="Q192" s="47"/>
+      <c r="R192" s="47"/>
+      <c r="S192" s="47"/>
+      <c r="T192" s="49"/>
+    </row>
+    <row r="194" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+      <c r="A194" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B194" s="37"/>
+      <c r="C194" s="37"/>
+      <c r="D194" s="37"/>
+      <c r="E194" s="37"/>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A196" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="G196" s="44"/>
+      <c r="H196" s="44"/>
+      <c r="I196" s="44"/>
+      <c r="J196" s="46"/>
+      <c r="K196" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="L196" s="44"/>
+      <c r="M196" s="44"/>
+      <c r="N196" s="44"/>
+      <c r="O196" s="46"/>
+      <c r="P196" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q196" s="44"/>
+      <c r="R196" s="44"/>
+      <c r="S196" s="44"/>
+      <c r="T196" s="46"/>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A197" s="14"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="48"/>
+      <c r="G197" s="47"/>
+      <c r="H197" s="47"/>
+      <c r="I197" s="47"/>
+      <c r="J197" s="49"/>
+      <c r="K197" s="48"/>
+      <c r="L197" s="47"/>
+      <c r="M197" s="47"/>
+      <c r="N197" s="47"/>
+      <c r="O197" s="49"/>
+      <c r="P197" s="47"/>
+      <c r="Q197" s="47"/>
+      <c r="R197" s="47"/>
+      <c r="S197" s="47"/>
+      <c r="T197" s="49"/>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A198" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="G198" s="44"/>
+      <c r="H198" s="44"/>
+      <c r="I198" s="44"/>
+      <c r="J198" s="46"/>
+      <c r="K198" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="L198" s="44"/>
+      <c r="M198" s="44"/>
+      <c r="N198" s="44"/>
+      <c r="O198" s="46"/>
+      <c r="P198" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q198" s="44"/>
+      <c r="R198" s="44"/>
+      <c r="S198" s="44"/>
+      <c r="T198" s="46"/>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A199" s="13"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="G199" s="35"/>
+      <c r="H199" s="35"/>
+      <c r="I199" s="35"/>
+      <c r="J199" s="36"/>
+      <c r="K199" s="43"/>
+      <c r="L199" s="35"/>
+      <c r="M199" s="35"/>
+      <c r="N199" s="35"/>
+      <c r="O199" s="36"/>
+      <c r="P199" s="35"/>
+      <c r="Q199" s="35"/>
+      <c r="R199" s="35"/>
+      <c r="S199" s="35"/>
+      <c r="T199" s="36"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A200" s="13"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="G200" s="35"/>
+      <c r="H200" s="35"/>
+      <c r="I200" s="35"/>
+      <c r="J200" s="36"/>
+      <c r="K200" s="43"/>
+      <c r="L200" s="35"/>
+      <c r="M200" s="35"/>
+      <c r="N200" s="35"/>
+      <c r="O200" s="36"/>
+      <c r="P200" s="35"/>
+      <c r="Q200" s="35"/>
+      <c r="R200" s="35"/>
+      <c r="S200" s="35"/>
+      <c r="T200" s="36"/>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A201" s="14"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="48"/>
+      <c r="G201" s="47"/>
+      <c r="H201" s="47"/>
+      <c r="I201" s="47"/>
+      <c r="J201" s="49"/>
+      <c r="K201" s="48"/>
+      <c r="L201" s="47"/>
+      <c r="M201" s="47"/>
+      <c r="N201" s="47"/>
+      <c r="O201" s="49"/>
+      <c r="P201" s="47"/>
+      <c r="Q201" s="47"/>
+      <c r="R201" s="47"/>
+      <c r="S201" s="47"/>
+      <c r="T201" s="49"/>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A202" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="G202" s="44"/>
+      <c r="H202" s="44"/>
+      <c r="I202" s="44"/>
+      <c r="J202" s="46"/>
+      <c r="K202" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="L202" s="44"/>
+      <c r="M202" s="44"/>
+      <c r="N202" s="44"/>
+      <c r="O202" s="46"/>
+      <c r="P202" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q202" s="44"/>
+      <c r="R202" s="44"/>
+      <c r="S202" s="44"/>
+      <c r="T202" s="46"/>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A203" s="13"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="G203" s="35"/>
+      <c r="H203" s="35"/>
+      <c r="I203" s="35"/>
+      <c r="J203" s="36"/>
+      <c r="K203" s="43"/>
+      <c r="L203" s="35"/>
+      <c r="M203" s="35"/>
+      <c r="N203" s="35"/>
+      <c r="O203" s="36"/>
+      <c r="P203" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q203" s="35"/>
+      <c r="R203" s="35"/>
+      <c r="S203" s="35"/>
+      <c r="T203" s="36"/>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A204" s="14"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="48"/>
+      <c r="G204" s="47"/>
+      <c r="H204" s="47"/>
+      <c r="I204" s="47"/>
+      <c r="J204" s="49"/>
+      <c r="K204" s="48"/>
+      <c r="L204" s="47"/>
+      <c r="M204" s="47"/>
+      <c r="N204" s="47"/>
+      <c r="O204" s="49"/>
+      <c r="P204" s="47"/>
+      <c r="Q204" s="47"/>
+      <c r="R204" s="47"/>
+      <c r="S204" s="47"/>
+      <c r="T204" s="49"/>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A205" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="G205" s="44"/>
+      <c r="H205" s="44"/>
+      <c r="I205" s="44"/>
+      <c r="J205" s="46"/>
+      <c r="K205" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="L205" s="44"/>
+      <c r="M205" s="44"/>
+      <c r="N205" s="44"/>
+      <c r="O205" s="46"/>
+      <c r="P205" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q205" s="44"/>
+      <c r="R205" s="44"/>
+      <c r="S205" s="44"/>
+      <c r="T205" s="46"/>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A206" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="G206" s="35"/>
+      <c r="H206" s="35"/>
+      <c r="I206" s="35"/>
+      <c r="J206" s="36"/>
+      <c r="K206" s="43"/>
+      <c r="L206" s="35"/>
+      <c r="M206" s="35"/>
+      <c r="N206" s="35"/>
+      <c r="O206" s="36"/>
+      <c r="P206" s="35"/>
+      <c r="Q206" s="35"/>
+      <c r="R206" s="35"/>
+      <c r="S206" s="35"/>
+      <c r="T206" s="36"/>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A207" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="43"/>
+      <c r="G207" s="35"/>
+      <c r="H207" s="35"/>
+      <c r="I207" s="35"/>
+      <c r="J207" s="36"/>
+      <c r="K207" s="43"/>
+      <c r="L207" s="35"/>
+      <c r="M207" s="35"/>
+      <c r="N207" s="35"/>
+      <c r="O207" s="36"/>
+      <c r="P207" s="35"/>
+      <c r="Q207" s="35"/>
+      <c r="R207" s="35"/>
+      <c r="S207" s="35"/>
+      <c r="T207" s="36"/>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A208" s="52"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="G208" s="35"/>
+      <c r="H208" s="35"/>
+      <c r="I208" s="35"/>
+      <c r="J208" s="36"/>
+      <c r="K208" s="43"/>
+      <c r="L208" s="35"/>
+      <c r="M208" s="35"/>
+      <c r="N208" s="35"/>
+      <c r="O208" s="36"/>
+      <c r="P208" s="35"/>
+      <c r="Q208" s="35"/>
+      <c r="R208" s="35"/>
+      <c r="S208" s="35"/>
+      <c r="T208" s="36"/>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A209" s="52"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="G209" s="35"/>
+      <c r="H209" s="35"/>
+      <c r="I209" s="35"/>
+      <c r="J209" s="36"/>
+      <c r="K209" s="43"/>
+      <c r="L209" s="35"/>
+      <c r="M209" s="35"/>
+      <c r="N209" s="35"/>
+      <c r="O209" s="36"/>
+      <c r="P209" s="35"/>
+      <c r="Q209" s="35"/>
+      <c r="R209" s="35"/>
+      <c r="S209" s="35"/>
+      <c r="T209" s="36"/>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A210" s="52"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="G210" s="35"/>
+      <c r="H210" s="35"/>
+      <c r="I210" s="35"/>
+      <c r="J210" s="36"/>
+      <c r="K210" s="43"/>
+      <c r="L210" s="35"/>
+      <c r="M210" s="35"/>
+      <c r="N210" s="35"/>
+      <c r="O210" s="36"/>
+      <c r="P210" s="35"/>
+      <c r="Q210" s="35"/>
+      <c r="R210" s="35"/>
+      <c r="S210" s="35"/>
+      <c r="T210" s="36"/>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A211" s="53"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="48"/>
+      <c r="G211" s="47"/>
+      <c r="H211" s="47"/>
+      <c r="I211" s="47"/>
+      <c r="J211" s="49"/>
+      <c r="K211" s="48"/>
+      <c r="L211" s="47"/>
+      <c r="M211" s="47"/>
+      <c r="N211" s="47"/>
+      <c r="O211" s="49"/>
+      <c r="P211" s="47"/>
+      <c r="Q211" s="47"/>
+      <c r="R211" s="47"/>
+      <c r="S211" s="47"/>
+      <c r="T211" s="49"/>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A212" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G212" s="44"/>
+      <c r="H212" s="44"/>
+      <c r="I212" s="44"/>
+      <c r="J212" s="46"/>
+      <c r="K212" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="L212" s="44"/>
+      <c r="M212" s="44"/>
+      <c r="N212" s="44"/>
+      <c r="O212" s="46"/>
+      <c r="P212" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q212" s="44"/>
+      <c r="R212" s="44"/>
+      <c r="S212" s="44"/>
+      <c r="T212" s="46"/>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A213" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="G213" s="35"/>
+      <c r="H213" s="35"/>
+      <c r="I213" s="35"/>
+      <c r="J213" s="36"/>
+      <c r="K213" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="L213" s="35"/>
+      <c r="M213" s="35"/>
+      <c r="N213" s="35"/>
+      <c r="O213" s="36"/>
+      <c r="P213" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q213" s="35"/>
+      <c r="R213" s="35"/>
+      <c r="S213" s="35"/>
+      <c r="T213" s="36"/>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A214" s="52"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="43"/>
+      <c r="G214" s="35"/>
+      <c r="H214" s="35"/>
+      <c r="I214" s="35"/>
+      <c r="J214" s="36"/>
+      <c r="K214" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="L214" s="35"/>
+      <c r="M214" s="35"/>
+      <c r="N214" s="35"/>
+      <c r="O214" s="36"/>
+      <c r="P214" s="35"/>
+      <c r="Q214" s="35"/>
+      <c r="R214" s="35"/>
+      <c r="S214" s="35"/>
+      <c r="T214" s="36"/>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A215" s="52"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="G215" s="35"/>
+      <c r="H215" s="35"/>
+      <c r="I215" s="35"/>
+      <c r="J215" s="36"/>
+      <c r="K215" s="43"/>
+      <c r="L215" s="35"/>
+      <c r="M215" s="35"/>
+      <c r="N215" s="35"/>
+      <c r="O215" s="36"/>
+      <c r="P215" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q215" s="35"/>
+      <c r="R215" s="35"/>
+      <c r="S215" s="35"/>
+      <c r="T215" s="36"/>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A216" s="52"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="43"/>
+      <c r="G216" s="35"/>
+      <c r="H216" s="35"/>
+      <c r="I216" s="35"/>
+      <c r="J216" s="36"/>
+      <c r="K216" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="L216" s="35"/>
+      <c r="M216" s="35"/>
+      <c r="N216" s="35"/>
+      <c r="O216" s="36"/>
+      <c r="P216" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q216" s="35"/>
+      <c r="R216" s="35"/>
+      <c r="S216" s="35"/>
+      <c r="T216" s="36"/>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A217" s="52"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="43"/>
+      <c r="G217" s="35"/>
+      <c r="H217" s="35"/>
+      <c r="I217" s="35"/>
+      <c r="J217" s="36"/>
+      <c r="K217" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="L217" s="35"/>
+      <c r="M217" s="35"/>
+      <c r="N217" s="35"/>
+      <c r="O217" s="36"/>
+      <c r="P217" s="35"/>
+      <c r="Q217" s="35"/>
+      <c r="R217" s="35"/>
+      <c r="S217" s="35"/>
+      <c r="T217" s="36"/>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A218" s="52"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="43"/>
+      <c r="G218" s="35"/>
+      <c r="H218" s="35"/>
+      <c r="I218" s="35"/>
+      <c r="J218" s="36"/>
+      <c r="K218" s="43"/>
+      <c r="L218" s="35"/>
+      <c r="M218" s="35"/>
+      <c r="N218" s="35"/>
+      <c r="O218" s="36"/>
+      <c r="P218" s="35"/>
+      <c r="Q218" s="35"/>
+      <c r="R218" s="35"/>
+      <c r="S218" s="35"/>
+      <c r="T218" s="36"/>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A219" s="52"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="43"/>
+      <c r="G219" s="35"/>
+      <c r="H219" s="35"/>
+      <c r="I219" s="35"/>
+      <c r="J219" s="36"/>
+      <c r="K219" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="L219" s="35"/>
+      <c r="M219" s="35"/>
+      <c r="N219" s="35"/>
+      <c r="O219" s="36"/>
+      <c r="P219" s="35"/>
+      <c r="Q219" s="35"/>
+      <c r="R219" s="35"/>
+      <c r="S219" s="35"/>
+      <c r="T219" s="36"/>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A220" s="52"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="43"/>
+      <c r="G220" s="35"/>
+      <c r="H220" s="35"/>
+      <c r="I220" s="35"/>
+      <c r="J220" s="36"/>
+      <c r="K220" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="L220" s="35"/>
+      <c r="M220" s="35"/>
+      <c r="N220" s="35"/>
+      <c r="O220" s="36"/>
+      <c r="P220" s="35"/>
+      <c r="Q220" s="35"/>
+      <c r="R220" s="35"/>
+      <c r="S220" s="35"/>
+      <c r="T220" s="36"/>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A221" s="52"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="43"/>
+      <c r="G221" s="35"/>
+      <c r="H221" s="35"/>
+      <c r="I221" s="35"/>
+      <c r="J221" s="36"/>
+      <c r="K221" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="L221" s="35"/>
+      <c r="M221" s="35"/>
+      <c r="N221" s="35"/>
+      <c r="O221" s="36"/>
+      <c r="P221" s="35"/>
+      <c r="Q221" s="35"/>
+      <c r="R221" s="35"/>
+      <c r="S221" s="35"/>
+      <c r="T221" s="36"/>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A222" s="53"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="48"/>
+      <c r="G222" s="47"/>
+      <c r="H222" s="47"/>
+      <c r="I222" s="47"/>
+      <c r="J222" s="49"/>
+      <c r="K222" s="48"/>
+      <c r="L222" s="47"/>
+      <c r="M222" s="47"/>
+      <c r="N222" s="47"/>
+      <c r="O222" s="49"/>
+      <c r="P222" s="47"/>
+      <c r="Q222" s="47"/>
+      <c r="R222" s="47"/>
+      <c r="S222" s="47"/>
+      <c r="T222" s="49"/>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A223" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="G223" s="44"/>
+      <c r="H223" s="44"/>
+      <c r="I223" s="44"/>
+      <c r="J223" s="46"/>
+      <c r="K223" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="L223" s="44"/>
+      <c r="M223" s="44"/>
+      <c r="N223" s="44"/>
+      <c r="O223" s="46"/>
+      <c r="P223" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q223" s="44"/>
+      <c r="R223" s="44"/>
+      <c r="S223" s="44"/>
+      <c r="T223" s="46"/>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A224" s="52"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="G224" s="35"/>
+      <c r="H224" s="35"/>
+      <c r="I224" s="35"/>
+      <c r="J224" s="36"/>
+      <c r="K224" s="43"/>
+      <c r="L224" s="35"/>
+      <c r="M224" s="35"/>
+      <c r="N224" s="35"/>
+      <c r="O224" s="36"/>
+      <c r="P224" s="35"/>
+      <c r="Q224" s="35"/>
+      <c r="R224" s="35"/>
+      <c r="S224" s="35"/>
+      <c r="T224" s="36"/>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A225" s="52"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="43"/>
+      <c r="G225" s="35"/>
+      <c r="H225" s="35"/>
+      <c r="I225" s="35"/>
+      <c r="J225" s="36"/>
+      <c r="K225" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="L225" s="35"/>
+      <c r="M225" s="35"/>
+      <c r="N225" s="35"/>
+      <c r="O225" s="36"/>
+      <c r="P225" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q225" s="35"/>
+      <c r="R225" s="35"/>
+      <c r="S225" s="35"/>
+      <c r="T225" s="36"/>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A226" s="52"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="G226" s="35"/>
+      <c r="H226" s="35"/>
+      <c r="I226" s="35"/>
+      <c r="J226" s="36"/>
+      <c r="K226" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="L226" s="35"/>
+      <c r="M226" s="35"/>
+      <c r="N226" s="35"/>
+      <c r="O226" s="36"/>
+      <c r="P226" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q226" s="35"/>
+      <c r="R226" s="35"/>
+      <c r="S226" s="35"/>
+      <c r="T226" s="36"/>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A227" s="52"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="G227" s="35"/>
+      <c r="H227" s="35"/>
+      <c r="I227" s="35"/>
+      <c r="J227" s="36"/>
+      <c r="K227" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="L227" s="35"/>
+      <c r="M227" s="35"/>
+      <c r="N227" s="35"/>
+      <c r="O227" s="36"/>
+      <c r="P227" s="35"/>
+      <c r="Q227" s="35"/>
+      <c r="R227" s="35"/>
+      <c r="S227" s="35"/>
+      <c r="T227" s="36"/>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A228" s="53"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="48"/>
+      <c r="G228" s="47"/>
+      <c r="H228" s="47"/>
+      <c r="I228" s="47"/>
+      <c r="J228" s="49"/>
+      <c r="K228" s="48"/>
+      <c r="L228" s="47"/>
+      <c r="M228" s="47"/>
+      <c r="N228" s="47"/>
+      <c r="O228" s="49"/>
+      <c r="P228" s="47"/>
+      <c r="Q228" s="47"/>
+      <c r="R228" s="47"/>
+      <c r="S228" s="47"/>
+      <c r="T228" s="49"/>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A230" s="56"/>
+      <c r="B230" s="57"/>
+      <c r="C230" s="57"/>
+      <c r="D230" s="57"/>
+      <c r="E230" s="57"/>
+      <c r="F230" s="56"/>
+      <c r="G230" s="57"/>
+      <c r="H230" s="57"/>
+      <c r="I230" s="57"/>
+      <c r="J230" s="58"/>
+      <c r="K230" s="56"/>
+      <c r="L230" s="57"/>
+      <c r="M230" s="57"/>
+      <c r="N230" s="57"/>
+      <c r="O230" s="58"/>
+      <c r="P230" s="57"/>
+      <c r="Q230" s="57"/>
+      <c r="R230" s="57"/>
+      <c r="S230" s="57"/>
+      <c r="T230" s="58"/>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A231" s="56"/>
+      <c r="B231" s="57"/>
+      <c r="C231" s="57"/>
+      <c r="D231" s="57"/>
+      <c r="E231" s="57"/>
+      <c r="F231" s="56"/>
+      <c r="G231" s="57"/>
+      <c r="H231" s="57"/>
+      <c r="I231" s="57"/>
+      <c r="J231" s="58"/>
+      <c r="K231" s="56"/>
+      <c r="L231" s="57"/>
+      <c r="M231" s="57"/>
+      <c r="N231" s="57"/>
+      <c r="O231" s="58"/>
+      <c r="P231" s="57"/>
+      <c r="Q231" s="57"/>
+      <c r="R231" s="57"/>
+      <c r="S231" s="57"/>
+      <c r="T231" s="58"/>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A232" s="56"/>
+      <c r="B232" s="57"/>
+      <c r="C232" s="57"/>
+      <c r="D232" s="57"/>
+      <c r="E232" s="57"/>
+      <c r="F232" s="56"/>
+      <c r="G232" s="57"/>
+      <c r="H232" s="57"/>
+      <c r="I232" s="57"/>
+      <c r="J232" s="58"/>
+      <c r="K232" s="56"/>
+      <c r="L232" s="57"/>
+      <c r="M232" s="57"/>
+      <c r="N232" s="57"/>
+      <c r="O232" s="58"/>
+      <c r="P232" s="57"/>
+      <c r="Q232" s="57"/>
+      <c r="R232" s="57"/>
+      <c r="S232" s="57"/>
+      <c r="T232" s="58"/>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A233" s="56"/>
+      <c r="B233" s="57"/>
+      <c r="C233" s="57"/>
+      <c r="D233" s="57"/>
+      <c r="E233" s="57"/>
+      <c r="F233" s="56"/>
+      <c r="G233" s="57"/>
+      <c r="H233" s="57"/>
+      <c r="I233" s="57"/>
+      <c r="J233" s="58"/>
+      <c r="K233" s="56"/>
+      <c r="L233" s="57"/>
+      <c r="M233" s="57"/>
+      <c r="N233" s="57"/>
+      <c r="O233" s="58"/>
+      <c r="P233" s="57"/>
+      <c r="Q233" s="57"/>
+      <c r="R233" s="57"/>
+      <c r="S233" s="57"/>
+      <c r="T233" s="58"/>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A234" s="56"/>
+      <c r="B234" s="57"/>
+      <c r="C234" s="57"/>
+      <c r="D234" s="57"/>
+      <c r="E234" s="57"/>
+      <c r="F234" s="56"/>
+      <c r="G234" s="57"/>
+      <c r="H234" s="57"/>
+      <c r="I234" s="57"/>
+      <c r="J234" s="58"/>
+      <c r="K234" s="56"/>
+      <c r="L234" s="57"/>
+      <c r="M234" s="57"/>
+      <c r="N234" s="57"/>
+      <c r="O234" s="58"/>
+      <c r="P234" s="57"/>
+      <c r="Q234" s="57"/>
+      <c r="R234" s="57"/>
+      <c r="S234" s="57"/>
+      <c r="T234" s="58"/>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A235" s="56"/>
+      <c r="B235" s="57"/>
+      <c r="C235" s="57"/>
+      <c r="D235" s="57"/>
+      <c r="E235" s="57"/>
+      <c r="F235" s="56"/>
+      <c r="G235" s="57"/>
+      <c r="H235" s="57"/>
+      <c r="I235" s="57"/>
+      <c r="J235" s="58"/>
+      <c r="K235" s="56"/>
+      <c r="L235" s="57"/>
+      <c r="M235" s="57"/>
+      <c r="N235" s="57"/>
+      <c r="O235" s="58"/>
+      <c r="P235" s="57"/>
+      <c r="Q235" s="57"/>
+      <c r="R235" s="57"/>
+      <c r="S235" s="57"/>
+      <c r="T235" s="58"/>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A236" s="56"/>
+      <c r="B236" s="57"/>
+      <c r="C236" s="57"/>
+      <c r="D236" s="57"/>
+      <c r="E236" s="57"/>
+      <c r="F236" s="56"/>
+      <c r="G236" s="57"/>
+      <c r="H236" s="57"/>
+      <c r="I236" s="57"/>
+      <c r="J236" s="58"/>
+      <c r="K236" s="56"/>
+      <c r="L236" s="57"/>
+      <c r="M236" s="57"/>
+      <c r="N236" s="57"/>
+      <c r="O236" s="58"/>
+      <c r="P236" s="57"/>
+      <c r="Q236" s="57"/>
+      <c r="R236" s="57"/>
+      <c r="S236" s="57"/>
+      <c r="T236" s="58"/>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A237" s="56"/>
+      <c r="B237" s="57"/>
+      <c r="C237" s="57"/>
+      <c r="D237" s="57"/>
+      <c r="E237" s="57"/>
+      <c r="F237" s="56"/>
+      <c r="G237" s="57"/>
+      <c r="H237" s="57"/>
+      <c r="I237" s="57"/>
+      <c r="J237" s="58"/>
+      <c r="K237" s="56"/>
+      <c r="L237" s="57"/>
+      <c r="M237" s="57"/>
+      <c r="N237" s="57"/>
+      <c r="O237" s="58"/>
+      <c r="P237" s="57"/>
+      <c r="Q237" s="57"/>
+      <c r="R237" s="57"/>
+      <c r="S237" s="57"/>
+      <c r="T237" s="58"/>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A238" s="56"/>
+      <c r="B238" s="57"/>
+      <c r="C238" s="57"/>
+      <c r="D238" s="57"/>
+      <c r="E238" s="57"/>
+      <c r="F238" s="56"/>
+      <c r="G238" s="57"/>
+      <c r="H238" s="57"/>
+      <c r="I238" s="57"/>
+      <c r="J238" s="58"/>
+      <c r="K238" s="56"/>
+      <c r="L238" s="57"/>
+      <c r="M238" s="57"/>
+      <c r="N238" s="57"/>
+      <c r="O238" s="58"/>
+      <c r="P238" s="57"/>
+      <c r="Q238" s="57"/>
+      <c r="R238" s="57"/>
+      <c r="S238" s="57"/>
+      <c r="T238" s="58"/>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A239" s="56"/>
+      <c r="B239" s="57"/>
+      <c r="C239" s="57"/>
+      <c r="D239" s="57"/>
+      <c r="E239" s="57"/>
+      <c r="F239" s="56"/>
+      <c r="G239" s="57"/>
+      <c r="H239" s="57"/>
+      <c r="I239" s="57"/>
+      <c r="J239" s="58"/>
+      <c r="K239" s="56"/>
+      <c r="L239" s="57"/>
+      <c r="M239" s="57"/>
+      <c r="N239" s="57"/>
+      <c r="O239" s="58"/>
+      <c r="P239" s="57"/>
+      <c r="Q239" s="57"/>
+      <c r="R239" s="57"/>
+      <c r="S239" s="57"/>
+      <c r="T239" s="58"/>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A240" s="56"/>
+      <c r="B240" s="57"/>
+      <c r="C240" s="57"/>
+      <c r="D240" s="57"/>
+      <c r="E240" s="57"/>
+      <c r="F240" s="56"/>
+      <c r="G240" s="57"/>
+      <c r="H240" s="57"/>
+      <c r="I240" s="57"/>
+      <c r="J240" s="58"/>
+      <c r="K240" s="56"/>
+      <c r="L240" s="57"/>
+      <c r="M240" s="57"/>
+      <c r="N240" s="57"/>
+      <c r="O240" s="58"/>
+      <c r="P240" s="57"/>
+      <c r="Q240" s="57"/>
+      <c r="R240" s="57"/>
+      <c r="S240" s="57"/>
+      <c r="T240" s="58"/>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A241" s="56"/>
+      <c r="B241" s="57"/>
+      <c r="C241" s="57"/>
+      <c r="D241" s="57"/>
+      <c r="E241" s="57"/>
+      <c r="F241" s="56"/>
+      <c r="G241" s="57"/>
+      <c r="H241" s="57"/>
+      <c r="I241" s="57"/>
+      <c r="J241" s="58"/>
+      <c r="K241" s="56"/>
+      <c r="L241" s="57"/>
+      <c r="M241" s="57"/>
+      <c r="N241" s="57"/>
+      <c r="O241" s="58"/>
+      <c r="P241" s="57"/>
+      <c r="Q241" s="57"/>
+      <c r="R241" s="57"/>
+      <c r="S241" s="57"/>
+      <c r="T241" s="58"/>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A242" s="56"/>
+      <c r="B242" s="57"/>
+      <c r="C242" s="57"/>
+      <c r="D242" s="57"/>
+      <c r="E242" s="57"/>
+      <c r="F242" s="56"/>
+      <c r="G242" s="57"/>
+      <c r="H242" s="57"/>
+      <c r="I242" s="57"/>
+      <c r="J242" s="58"/>
+      <c r="K242" s="56"/>
+      <c r="L242" s="57"/>
+      <c r="M242" s="57"/>
+      <c r="N242" s="57"/>
+      <c r="O242" s="58"/>
+      <c r="P242" s="57"/>
+      <c r="Q242" s="57"/>
+      <c r="R242" s="57"/>
+      <c r="S242" s="57"/>
+      <c r="T242" s="58"/>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A243" s="56"/>
+      <c r="B243" s="57"/>
+      <c r="C243" s="57"/>
+      <c r="D243" s="57"/>
+      <c r="E243" s="57"/>
+      <c r="F243" s="56"/>
+      <c r="G243" s="57"/>
+      <c r="H243" s="57"/>
+      <c r="I243" s="57"/>
+      <c r="J243" s="58"/>
+      <c r="K243" s="56"/>
+      <c r="L243" s="57"/>
+      <c r="M243" s="57"/>
+      <c r="N243" s="57"/>
+      <c r="O243" s="58"/>
+      <c r="P243" s="57"/>
+      <c r="Q243" s="57"/>
+      <c r="R243" s="57"/>
+      <c r="S243" s="57"/>
+      <c r="T243" s="58"/>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A244" s="56"/>
+      <c r="B244" s="57"/>
+      <c r="C244" s="57"/>
+      <c r="D244" s="57"/>
+      <c r="E244" s="57"/>
+      <c r="F244" s="56"/>
+      <c r="G244" s="57"/>
+      <c r="H244" s="57"/>
+      <c r="I244" s="57"/>
+      <c r="J244" s="58"/>
+      <c r="K244" s="56"/>
+      <c r="L244" s="57"/>
+      <c r="M244" s="57"/>
+      <c r="N244" s="57"/>
+      <c r="O244" s="58"/>
+      <c r="P244" s="57"/>
+      <c r="Q244" s="57"/>
+      <c r="R244" s="57"/>
+      <c r="S244" s="57"/>
+      <c r="T244" s="58"/>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A245" s="56"/>
+      <c r="B245" s="57"/>
+      <c r="C245" s="57"/>
+      <c r="D245" s="57"/>
+      <c r="E245" s="57"/>
+      <c r="F245" s="56"/>
+      <c r="G245" s="57"/>
+      <c r="H245" s="57"/>
+      <c r="I245" s="57"/>
+      <c r="J245" s="58"/>
+      <c r="K245" s="56"/>
+      <c r="L245" s="57"/>
+      <c r="M245" s="57"/>
+      <c r="N245" s="57"/>
+      <c r="O245" s="58"/>
+      <c r="P245" s="57"/>
+      <c r="Q245" s="57"/>
+      <c r="R245" s="57"/>
+      <c r="S245" s="57"/>
+      <c r="T245" s="58"/>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A246" s="56"/>
+      <c r="B246" s="57"/>
+      <c r="C246" s="57"/>
+      <c r="D246" s="57"/>
+      <c r="E246" s="57"/>
+      <c r="F246" s="56"/>
+      <c r="G246" s="57"/>
+      <c r="H246" s="57"/>
+      <c r="I246" s="57"/>
+      <c r="J246" s="58"/>
+      <c r="K246" s="56"/>
+      <c r="L246" s="57"/>
+      <c r="M246" s="57"/>
+      <c r="N246" s="57"/>
+      <c r="O246" s="58"/>
+      <c r="P246" s="57"/>
+      <c r="Q246" s="57"/>
+      <c r="R246" s="57"/>
+      <c r="S246" s="57"/>
+      <c r="T246" s="58"/>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A247" s="56"/>
+      <c r="B247" s="57"/>
+      <c r="C247" s="57"/>
+      <c r="D247" s="57"/>
+      <c r="E247" s="57"/>
+      <c r="F247" s="56"/>
+      <c r="G247" s="57"/>
+      <c r="H247" s="57"/>
+      <c r="I247" s="57"/>
+      <c r="J247" s="58"/>
+      <c r="K247" s="56"/>
+      <c r="L247" s="57"/>
+      <c r="M247" s="57"/>
+      <c r="N247" s="57"/>
+      <c r="O247" s="58"/>
+      <c r="P247" s="57"/>
+      <c r="Q247" s="57"/>
+      <c r="R247" s="57"/>
+      <c r="S247" s="57"/>
+      <c r="T247" s="58"/>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A248" s="56"/>
+      <c r="B248" s="57"/>
+      <c r="C248" s="57"/>
+      <c r="D248" s="57"/>
+      <c r="E248" s="57"/>
+      <c r="F248" s="56"/>
+      <c r="G248" s="57"/>
+      <c r="H248" s="57"/>
+      <c r="I248" s="57"/>
+      <c r="J248" s="58"/>
+      <c r="K248" s="56"/>
+      <c r="L248" s="57"/>
+      <c r="M248" s="57"/>
+      <c r="N248" s="57"/>
+      <c r="O248" s="58"/>
+      <c r="P248" s="57"/>
+      <c r="Q248" s="57"/>
+      <c r="R248" s="57"/>
+      <c r="S248" s="57"/>
+      <c r="T248" s="58"/>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A249" s="56"/>
+      <c r="B249" s="57"/>
+      <c r="C249" s="57"/>
+      <c r="D249" s="57"/>
+      <c r="E249" s="57"/>
+      <c r="F249" s="56"/>
+      <c r="G249" s="57"/>
+      <c r="H249" s="57"/>
+      <c r="I249" s="57"/>
+      <c r="J249" s="58"/>
+      <c r="K249" s="56"/>
+      <c r="L249" s="57"/>
+      <c r="M249" s="57"/>
+      <c r="N249" s="57"/>
+      <c r="O249" s="58"/>
+      <c r="P249" s="57"/>
+      <c r="Q249" s="57"/>
+      <c r="R249" s="57"/>
+      <c r="S249" s="57"/>
+      <c r="T249" s="58"/>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A250" s="56"/>
+      <c r="B250" s="57"/>
+      <c r="C250" s="57"/>
+      <c r="D250" s="57"/>
+      <c r="E250" s="57"/>
+      <c r="F250" s="56"/>
+      <c r="G250" s="57"/>
+      <c r="H250" s="57"/>
+      <c r="I250" s="57"/>
+      <c r="J250" s="58"/>
+      <c r="K250" s="56"/>
+      <c r="L250" s="57"/>
+      <c r="M250" s="57"/>
+      <c r="N250" s="57"/>
+      <c r="O250" s="58"/>
+      <c r="P250" s="57"/>
+      <c r="Q250" s="57"/>
+      <c r="R250" s="57"/>
+      <c r="S250" s="57"/>
+      <c r="T250" s="58"/>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A251" s="56"/>
+      <c r="B251" s="57"/>
+      <c r="C251" s="57"/>
+      <c r="D251" s="57"/>
+      <c r="E251" s="57"/>
+      <c r="F251" s="56"/>
+      <c r="G251" s="57"/>
+      <c r="H251" s="57"/>
+      <c r="I251" s="57"/>
+      <c r="J251" s="58"/>
+      <c r="K251" s="56"/>
+      <c r="L251" s="57"/>
+      <c r="M251" s="57"/>
+      <c r="N251" s="57"/>
+      <c r="O251" s="58"/>
+      <c r="P251" s="57"/>
+      <c r="Q251" s="57"/>
+      <c r="R251" s="57"/>
+      <c r="S251" s="57"/>
+      <c r="T251" s="58"/>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A252" s="56"/>
+      <c r="B252" s="57"/>
+      <c r="C252" s="57"/>
+      <c r="D252" s="57"/>
+      <c r="E252" s="57"/>
+      <c r="F252" s="56"/>
+      <c r="G252" s="57"/>
+      <c r="H252" s="57"/>
+      <c r="I252" s="57"/>
+      <c r="J252" s="58"/>
+      <c r="K252" s="56"/>
+      <c r="L252" s="57"/>
+      <c r="M252" s="57"/>
+      <c r="N252" s="57"/>
+      <c r="O252" s="58"/>
+      <c r="P252" s="57"/>
+      <c r="Q252" s="57"/>
+      <c r="R252" s="57"/>
+      <c r="S252" s="57"/>
+      <c r="T252" s="58"/>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A253" s="56"/>
+      <c r="B253" s="57"/>
+      <c r="C253" s="57"/>
+      <c r="D253" s="57"/>
+      <c r="E253" s="57"/>
+      <c r="F253" s="56"/>
+      <c r="G253" s="57"/>
+      <c r="H253" s="57"/>
+      <c r="I253" s="57"/>
+      <c r="J253" s="58"/>
+      <c r="K253" s="56"/>
+      <c r="L253" s="57"/>
+      <c r="M253" s="57"/>
+      <c r="N253" s="57"/>
+      <c r="O253" s="58"/>
+      <c r="P253" s="57"/>
+      <c r="Q253" s="57"/>
+      <c r="R253" s="57"/>
+      <c r="S253" s="57"/>
+      <c r="T253" s="58"/>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A254" s="56"/>
+      <c r="B254" s="57"/>
+      <c r="C254" s="57"/>
+      <c r="D254" s="57"/>
+      <c r="E254" s="57"/>
+      <c r="F254" s="56"/>
+      <c r="G254" s="57"/>
+      <c r="H254" s="57"/>
+      <c r="I254" s="57"/>
+      <c r="J254" s="58"/>
+      <c r="K254" s="56"/>
+      <c r="L254" s="57"/>
+      <c r="M254" s="57"/>
+      <c r="N254" s="57"/>
+      <c r="O254" s="58"/>
+      <c r="P254" s="57"/>
+      <c r="Q254" s="57"/>
+      <c r="R254" s="57"/>
+      <c r="S254" s="57"/>
+      <c r="T254" s="58"/>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A255" s="56"/>
+      <c r="B255" s="57"/>
+      <c r="C255" s="57"/>
+      <c r="D255" s="57"/>
+      <c r="E255" s="57"/>
+      <c r="F255" s="56"/>
+      <c r="G255" s="57"/>
+      <c r="H255" s="57"/>
+      <c r="I255" s="57"/>
+      <c r="J255" s="58"/>
+      <c r="K255" s="56"/>
+      <c r="L255" s="57"/>
+      <c r="M255" s="57"/>
+      <c r="N255" s="57"/>
+      <c r="O255" s="58"/>
+      <c r="P255" s="57"/>
+      <c r="Q255" s="57"/>
+      <c r="R255" s="57"/>
+      <c r="S255" s="57"/>
+      <c r="T255" s="58"/>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A256" s="56"/>
+      <c r="B256" s="57"/>
+      <c r="C256" s="57"/>
+      <c r="D256" s="57"/>
+      <c r="E256" s="57"/>
+      <c r="F256" s="56"/>
+      <c r="G256" s="57"/>
+      <c r="H256" s="57"/>
+      <c r="I256" s="57"/>
+      <c r="J256" s="58"/>
+      <c r="K256" s="56"/>
+      <c r="L256" s="57"/>
+      <c r="M256" s="57"/>
+      <c r="N256" s="57"/>
+      <c r="O256" s="58"/>
+      <c r="P256" s="57"/>
+      <c r="Q256" s="57"/>
+      <c r="R256" s="57"/>
+      <c r="S256" s="57"/>
+      <c r="T256" s="58"/>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A257" s="56"/>
+      <c r="B257" s="57"/>
+      <c r="C257" s="57"/>
+      <c r="D257" s="57"/>
+      <c r="E257" s="57"/>
+      <c r="F257" s="56"/>
+      <c r="G257" s="57"/>
+      <c r="H257" s="57"/>
+      <c r="I257" s="57"/>
+      <c r="J257" s="58"/>
+      <c r="K257" s="56"/>
+      <c r="L257" s="57"/>
+      <c r="M257" s="57"/>
+      <c r="N257" s="57"/>
+      <c r="O257" s="58"/>
+      <c r="P257" s="57"/>
+      <c r="Q257" s="57"/>
+      <c r="R257" s="57"/>
+      <c r="S257" s="57"/>
+      <c r="T257" s="58"/>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A258" s="56"/>
+      <c r="B258" s="57"/>
+      <c r="C258" s="57"/>
+      <c r="D258" s="57"/>
+      <c r="E258" s="57"/>
+      <c r="F258" s="56"/>
+      <c r="G258" s="57"/>
+      <c r="H258" s="57"/>
+      <c r="I258" s="57"/>
+      <c r="J258" s="58"/>
+      <c r="K258" s="56"/>
+      <c r="L258" s="57"/>
+      <c r="M258" s="57"/>
+      <c r="N258" s="57"/>
+      <c r="O258" s="58"/>
+      <c r="P258" s="57"/>
+      <c r="Q258" s="57"/>
+      <c r="R258" s="57"/>
+      <c r="S258" s="57"/>
+      <c r="T258" s="58"/>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A259" s="56"/>
+      <c r="B259" s="57"/>
+      <c r="C259" s="57"/>
+      <c r="D259" s="57"/>
+      <c r="E259" s="57"/>
+      <c r="F259" s="56"/>
+      <c r="G259" s="57"/>
+      <c r="H259" s="57"/>
+      <c r="I259" s="57"/>
+      <c r="J259" s="58"/>
+      <c r="K259" s="56"/>
+      <c r="L259" s="57"/>
+      <c r="M259" s="57"/>
+      <c r="N259" s="57"/>
+      <c r="O259" s="58"/>
+      <c r="P259" s="57"/>
+      <c r="Q259" s="57"/>
+      <c r="R259" s="57"/>
+      <c r="S259" s="57"/>
+      <c r="T259" s="58"/>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A260" s="56"/>
+      <c r="B260" s="57"/>
+      <c r="C260" s="57"/>
+      <c r="D260" s="57"/>
+      <c r="E260" s="57"/>
+      <c r="F260" s="56"/>
+      <c r="G260" s="57"/>
+      <c r="H260" s="57"/>
+      <c r="I260" s="57"/>
+      <c r="J260" s="58"/>
+      <c r="K260" s="56"/>
+      <c r="L260" s="57"/>
+      <c r="M260" s="57"/>
+      <c r="N260" s="57"/>
+      <c r="O260" s="58"/>
+      <c r="P260" s="57"/>
+      <c r="Q260" s="57"/>
+      <c r="R260" s="57"/>
+      <c r="S260" s="57"/>
+      <c r="T260" s="58"/>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A261" s="56"/>
+      <c r="B261" s="57"/>
+      <c r="C261" s="57"/>
+      <c r="D261" s="57"/>
+      <c r="E261" s="57"/>
+      <c r="F261" s="56"/>
+      <c r="G261" s="57"/>
+      <c r="H261" s="57"/>
+      <c r="I261" s="57"/>
+      <c r="J261" s="58"/>
+      <c r="K261" s="56"/>
+      <c r="L261" s="57"/>
+      <c r="M261" s="57"/>
+      <c r="N261" s="57"/>
+      <c r="O261" s="58"/>
+      <c r="P261" s="57"/>
+      <c r="Q261" s="57"/>
+      <c r="R261" s="57"/>
+      <c r="S261" s="57"/>
+      <c r="T261" s="58"/>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A262" s="56"/>
+      <c r="B262" s="57"/>
+      <c r="C262" s="57"/>
+      <c r="D262" s="57"/>
+      <c r="E262" s="57"/>
+      <c r="F262" s="56"/>
+      <c r="G262" s="57"/>
+      <c r="H262" s="57"/>
+      <c r="I262" s="57"/>
+      <c r="J262" s="58"/>
+      <c r="K262" s="56"/>
+      <c r="L262" s="57"/>
+      <c r="M262" s="57"/>
+      <c r="N262" s="57"/>
+      <c r="O262" s="58"/>
+      <c r="P262" s="57"/>
+      <c r="Q262" s="57"/>
+      <c r="R262" s="57"/>
+      <c r="S262" s="57"/>
+      <c r="T262" s="58"/>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A263" s="56"/>
+      <c r="B263" s="57"/>
+      <c r="C263" s="57"/>
+      <c r="D263" s="57"/>
+      <c r="E263" s="57"/>
+      <c r="F263" s="56"/>
+      <c r="G263" s="57"/>
+      <c r="H263" s="57"/>
+      <c r="I263" s="57"/>
+      <c r="J263" s="58"/>
+      <c r="K263" s="56"/>
+      <c r="L263" s="57"/>
+      <c r="M263" s="57"/>
+      <c r="N263" s="57"/>
+      <c r="O263" s="58"/>
+      <c r="P263" s="57"/>
+      <c r="Q263" s="57"/>
+      <c r="R263" s="57"/>
+      <c r="S263" s="57"/>
+      <c r="T263" s="58"/>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A264" s="56"/>
+      <c r="B264" s="57"/>
+      <c r="C264" s="57"/>
+      <c r="D264" s="57"/>
+      <c r="E264" s="57"/>
+      <c r="F264" s="56"/>
+      <c r="G264" s="57"/>
+      <c r="H264" s="57"/>
+      <c r="I264" s="57"/>
+      <c r="J264" s="58"/>
+      <c r="K264" s="56"/>
+      <c r="L264" s="57"/>
+      <c r="M264" s="57"/>
+      <c r="N264" s="57"/>
+      <c r="O264" s="58"/>
+      <c r="P264" s="57"/>
+      <c r="Q264" s="57"/>
+      <c r="R264" s="57"/>
+      <c r="S264" s="57"/>
+      <c r="T264" s="58"/>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A265" s="56"/>
+      <c r="B265" s="57"/>
+      <c r="C265" s="57"/>
+      <c r="D265" s="57"/>
+      <c r="E265" s="57"/>
+      <c r="F265" s="56"/>
+      <c r="G265" s="57"/>
+      <c r="H265" s="57"/>
+      <c r="I265" s="57"/>
+      <c r="J265" s="58"/>
+      <c r="K265" s="56"/>
+      <c r="L265" s="57"/>
+      <c r="M265" s="57"/>
+      <c r="N265" s="57"/>
+      <c r="O265" s="58"/>
+      <c r="P265" s="57"/>
+      <c r="Q265" s="57"/>
+      <c r="R265" s="57"/>
+      <c r="S265" s="57"/>
+      <c r="T265" s="58"/>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A266" s="56"/>
+      <c r="B266" s="57"/>
+      <c r="C266" s="57"/>
+      <c r="D266" s="57"/>
+      <c r="E266" s="57"/>
+      <c r="F266" s="56"/>
+      <c r="G266" s="57"/>
+      <c r="H266" s="57"/>
+      <c r="I266" s="57"/>
+      <c r="J266" s="58"/>
+      <c r="K266" s="56"/>
+      <c r="L266" s="57"/>
+      <c r="M266" s="57"/>
+      <c r="N266" s="57"/>
+      <c r="O266" s="58"/>
+      <c r="P266" s="57"/>
+      <c r="Q266" s="57"/>
+      <c r="R266" s="57"/>
+      <c r="S266" s="57"/>
+      <c r="T266" s="58"/>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A267" s="56"/>
+      <c r="B267" s="57"/>
+      <c r="C267" s="57"/>
+      <c r="D267" s="57"/>
+      <c r="E267" s="57"/>
+      <c r="F267" s="56"/>
+      <c r="G267" s="57"/>
+      <c r="H267" s="57"/>
+      <c r="I267" s="57"/>
+      <c r="J267" s="58"/>
+      <c r="K267" s="56"/>
+      <c r="L267" s="57"/>
+      <c r="M267" s="57"/>
+      <c r="N267" s="57"/>
+      <c r="O267" s="58"/>
+      <c r="P267" s="57"/>
+      <c r="Q267" s="57"/>
+      <c r="R267" s="57"/>
+      <c r="S267" s="57"/>
+      <c r="T267" s="58"/>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A268" s="56"/>
+      <c r="B268" s="57"/>
+      <c r="C268" s="57"/>
+      <c r="D268" s="57"/>
+      <c r="E268" s="57"/>
+      <c r="F268" s="56"/>
+      <c r="G268" s="57"/>
+      <c r="H268" s="57"/>
+      <c r="I268" s="57"/>
+      <c r="J268" s="58"/>
+      <c r="K268" s="56"/>
+      <c r="L268" s="57"/>
+      <c r="M268" s="57"/>
+      <c r="N268" s="57"/>
+      <c r="O268" s="58"/>
+      <c r="P268" s="57"/>
+      <c r="Q268" s="57"/>
+      <c r="R268" s="57"/>
+      <c r="S268" s="57"/>
+      <c r="T268" s="58"/>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A269" s="56"/>
+      <c r="B269" s="57"/>
+      <c r="C269" s="57"/>
+      <c r="D269" s="57"/>
+      <c r="E269" s="57"/>
+      <c r="F269" s="56"/>
+      <c r="G269" s="57"/>
+      <c r="H269" s="57"/>
+      <c r="I269" s="57"/>
+      <c r="J269" s="58"/>
+      <c r="K269" s="56"/>
+      <c r="L269" s="57"/>
+      <c r="M269" s="57"/>
+      <c r="N269" s="57"/>
+      <c r="O269" s="58"/>
+      <c r="P269" s="57"/>
+      <c r="Q269" s="57"/>
+      <c r="R269" s="57"/>
+      <c r="S269" s="57"/>
+      <c r="T269" s="58"/>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A270" s="56"/>
+      <c r="B270" s="57"/>
+      <c r="C270" s="57"/>
+      <c r="D270" s="57"/>
+      <c r="E270" s="57"/>
+      <c r="F270" s="56"/>
+      <c r="G270" s="57"/>
+      <c r="H270" s="57"/>
+      <c r="I270" s="57"/>
+      <c r="J270" s="58"/>
+      <c r="K270" s="56"/>
+      <c r="L270" s="57"/>
+      <c r="M270" s="57"/>
+      <c r="N270" s="57"/>
+      <c r="O270" s="58"/>
+      <c r="P270" s="57"/>
+      <c r="Q270" s="57"/>
+      <c r="R270" s="57"/>
+      <c r="S270" s="57"/>
+      <c r="T270" s="58"/>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A271" s="56"/>
+      <c r="B271" s="57"/>
+      <c r="C271" s="57"/>
+      <c r="D271" s="57"/>
+      <c r="E271" s="57"/>
+      <c r="F271" s="56"/>
+      <c r="G271" s="57"/>
+      <c r="H271" s="57"/>
+      <c r="I271" s="57"/>
+      <c r="J271" s="58"/>
+      <c r="K271" s="56"/>
+      <c r="L271" s="57"/>
+      <c r="M271" s="57"/>
+      <c r="N271" s="57"/>
+      <c r="O271" s="58"/>
+      <c r="P271" s="57"/>
+      <c r="Q271" s="57"/>
+      <c r="R271" s="57"/>
+      <c r="S271" s="57"/>
+      <c r="T271" s="58"/>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A272" s="56"/>
+      <c r="B272" s="57"/>
+      <c r="C272" s="57"/>
+      <c r="D272" s="57"/>
+      <c r="E272" s="57"/>
+      <c r="F272" s="56"/>
+      <c r="G272" s="57"/>
+      <c r="H272" s="57"/>
+      <c r="I272" s="57"/>
+      <c r="J272" s="58"/>
+      <c r="K272" s="56"/>
+      <c r="L272" s="57"/>
+      <c r="M272" s="57"/>
+      <c r="N272" s="57"/>
+      <c r="O272" s="58"/>
+      <c r="P272" s="57"/>
+      <c r="Q272" s="57"/>
+      <c r="R272" s="57"/>
+      <c r="S272" s="57"/>
+      <c r="T272" s="58"/>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A273" s="56"/>
+      <c r="B273" s="57"/>
+      <c r="C273" s="57"/>
+      <c r="D273" s="57"/>
+      <c r="E273" s="57"/>
+      <c r="F273" s="56"/>
+      <c r="G273" s="57"/>
+      <c r="H273" s="57"/>
+      <c r="I273" s="57"/>
+      <c r="J273" s="58"/>
+      <c r="K273" s="56"/>
+      <c r="L273" s="57"/>
+      <c r="M273" s="57"/>
+      <c r="N273" s="57"/>
+      <c r="O273" s="58"/>
+      <c r="P273" s="57"/>
+      <c r="Q273" s="57"/>
+      <c r="R273" s="57"/>
+      <c r="S273" s="57"/>
+      <c r="T273" s="58"/>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A274" s="56"/>
+      <c r="B274" s="57"/>
+      <c r="C274" s="57"/>
+      <c r="D274" s="57"/>
+      <c r="E274" s="57"/>
+      <c r="F274" s="56"/>
+      <c r="G274" s="57"/>
+      <c r="H274" s="57"/>
+      <c r="I274" s="57"/>
+      <c r="J274" s="58"/>
+      <c r="K274" s="56"/>
+      <c r="L274" s="57"/>
+      <c r="M274" s="57"/>
+      <c r="N274" s="57"/>
+      <c r="O274" s="58"/>
+      <c r="P274" s="57"/>
+      <c r="Q274" s="57"/>
+      <c r="R274" s="57"/>
+      <c r="S274" s="57"/>
+      <c r="T274" s="58"/>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A275" s="56"/>
+      <c r="B275" s="57"/>
+      <c r="C275" s="57"/>
+      <c r="D275" s="57"/>
+      <c r="E275" s="57"/>
+      <c r="F275" s="56"/>
+      <c r="G275" s="57"/>
+      <c r="H275" s="57"/>
+      <c r="I275" s="57"/>
+      <c r="J275" s="58"/>
+      <c r="K275" s="56"/>
+      <c r="L275" s="57"/>
+      <c r="M275" s="57"/>
+      <c r="N275" s="57"/>
+      <c r="O275" s="58"/>
+      <c r="P275" s="57"/>
+      <c r="Q275" s="57"/>
+      <c r="R275" s="57"/>
+      <c r="S275" s="57"/>
+      <c r="T275" s="58"/>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A276" s="56"/>
+      <c r="B276" s="57"/>
+      <c r="C276" s="57"/>
+      <c r="D276" s="57"/>
+      <c r="E276" s="57"/>
+      <c r="F276" s="56"/>
+      <c r="G276" s="57"/>
+      <c r="H276" s="57"/>
+      <c r="I276" s="57"/>
+      <c r="J276" s="58"/>
+      <c r="K276" s="56"/>
+      <c r="L276" s="57"/>
+      <c r="M276" s="57"/>
+      <c r="N276" s="57"/>
+      <c r="O276" s="58"/>
+      <c r="P276" s="57"/>
+      <c r="Q276" s="57"/>
+      <c r="R276" s="57"/>
+      <c r="S276" s="57"/>
+      <c r="T276" s="58"/>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A277" s="56"/>
+      <c r="B277" s="57"/>
+      <c r="C277" s="57"/>
+      <c r="D277" s="57"/>
+      <c r="E277" s="57"/>
+      <c r="F277" s="56"/>
+      <c r="G277" s="57"/>
+      <c r="H277" s="57"/>
+      <c r="I277" s="57"/>
+      <c r="J277" s="58"/>
+      <c r="K277" s="56"/>
+      <c r="L277" s="57"/>
+      <c r="M277" s="57"/>
+      <c r="N277" s="57"/>
+      <c r="O277" s="58"/>
+      <c r="P277" s="57"/>
+      <c r="Q277" s="57"/>
+      <c r="R277" s="57"/>
+      <c r="S277" s="57"/>
+      <c r="T277" s="58"/>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A278" s="56"/>
+      <c r="B278" s="57"/>
+      <c r="C278" s="57"/>
+      <c r="D278" s="57"/>
+      <c r="E278" s="57"/>
+      <c r="F278" s="56"/>
+      <c r="G278" s="57"/>
+      <c r="H278" s="57"/>
+      <c r="I278" s="57"/>
+      <c r="J278" s="58"/>
+      <c r="K278" s="56"/>
+      <c r="L278" s="57"/>
+      <c r="M278" s="57"/>
+      <c r="N278" s="57"/>
+      <c r="O278" s="58"/>
+      <c r="P278" s="57"/>
+      <c r="Q278" s="57"/>
+      <c r="R278" s="57"/>
+      <c r="S278" s="57"/>
+      <c r="T278" s="58"/>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A279" s="56"/>
+      <c r="B279" s="57"/>
+      <c r="C279" s="57"/>
+      <c r="D279" s="57"/>
+      <c r="E279" s="57"/>
+      <c r="F279" s="56"/>
+      <c r="G279" s="57"/>
+      <c r="H279" s="57"/>
+      <c r="I279" s="57"/>
+      <c r="J279" s="58"/>
+      <c r="K279" s="56"/>
+      <c r="L279" s="57"/>
+      <c r="M279" s="57"/>
+      <c r="N279" s="57"/>
+      <c r="O279" s="58"/>
+      <c r="P279" s="57"/>
+      <c r="Q279" s="57"/>
+      <c r="R279" s="57"/>
+      <c r="S279" s="57"/>
+      <c r="T279" s="58"/>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A280" s="56"/>
+      <c r="B280" s="57"/>
+      <c r="C280" s="57"/>
+      <c r="D280" s="57"/>
+      <c r="E280" s="57"/>
+      <c r="F280" s="56"/>
+      <c r="G280" s="57"/>
+      <c r="H280" s="57"/>
+      <c r="I280" s="57"/>
+      <c r="J280" s="58"/>
+      <c r="K280" s="56"/>
+      <c r="L280" s="57"/>
+      <c r="M280" s="57"/>
+      <c r="N280" s="57"/>
+      <c r="O280" s="58"/>
+      <c r="P280" s="57"/>
+      <c r="Q280" s="57"/>
+      <c r="R280" s="57"/>
+      <c r="S280" s="57"/>
+      <c r="T280" s="58"/>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A281" s="56"/>
+      <c r="B281" s="57"/>
+      <c r="C281" s="57"/>
+      <c r="D281" s="57"/>
+      <c r="E281" s="57"/>
+      <c r="F281" s="56"/>
+      <c r="G281" s="57"/>
+      <c r="H281" s="57"/>
+      <c r="I281" s="57"/>
+      <c r="J281" s="58"/>
+      <c r="K281" s="56"/>
+      <c r="L281" s="57"/>
+      <c r="M281" s="57"/>
+      <c r="N281" s="57"/>
+      <c r="O281" s="58"/>
+      <c r="P281" s="57"/>
+      <c r="Q281" s="57"/>
+      <c r="R281" s="57"/>
+      <c r="S281" s="57"/>
+      <c r="T281" s="58"/>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A282" s="56"/>
+      <c r="B282" s="57"/>
+      <c r="C282" s="57"/>
+      <c r="D282" s="57"/>
+      <c r="E282" s="57"/>
+      <c r="F282" s="56"/>
+      <c r="G282" s="57"/>
+      <c r="H282" s="57"/>
+      <c r="I282" s="57"/>
+      <c r="J282" s="58"/>
+      <c r="K282" s="56"/>
+      <c r="L282" s="57"/>
+      <c r="M282" s="57"/>
+      <c r="N282" s="57"/>
+      <c r="O282" s="58"/>
+      <c r="P282" s="57"/>
+      <c r="Q282" s="57"/>
+      <c r="R282" s="57"/>
+      <c r="S282" s="57"/>
+      <c r="T282" s="58"/>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A283" s="56"/>
+      <c r="B283" s="57"/>
+      <c r="C283" s="57"/>
+      <c r="D283" s="57"/>
+      <c r="E283" s="57"/>
+      <c r="F283" s="56"/>
+      <c r="G283" s="57"/>
+      <c r="H283" s="57"/>
+      <c r="I283" s="57"/>
+      <c r="J283" s="58"/>
+      <c r="K283" s="56"/>
+      <c r="L283" s="57"/>
+      <c r="M283" s="57"/>
+      <c r="N283" s="57"/>
+      <c r="O283" s="58"/>
+      <c r="P283" s="57"/>
+      <c r="Q283" s="57"/>
+      <c r="R283" s="57"/>
+      <c r="S283" s="57"/>
+      <c r="T283" s="58"/>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A284" s="56"/>
+      <c r="B284" s="57"/>
+      <c r="C284" s="57"/>
+      <c r="D284" s="57"/>
+      <c r="E284" s="57"/>
+      <c r="F284" s="56"/>
+      <c r="G284" s="57"/>
+      <c r="H284" s="57"/>
+      <c r="I284" s="57"/>
+      <c r="J284" s="58"/>
+      <c r="K284" s="56"/>
+      <c r="L284" s="57"/>
+      <c r="M284" s="57"/>
+      <c r="N284" s="57"/>
+      <c r="O284" s="58"/>
+      <c r="P284" s="57"/>
+      <c r="Q284" s="57"/>
+      <c r="R284" s="57"/>
+      <c r="S284" s="57"/>
+      <c r="T284" s="58"/>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A285" s="56"/>
+      <c r="B285" s="57"/>
+      <c r="C285" s="57"/>
+      <c r="D285" s="57"/>
+      <c r="E285" s="57"/>
+      <c r="F285" s="56"/>
+      <c r="G285" s="57"/>
+      <c r="H285" s="57"/>
+      <c r="I285" s="57"/>
+      <c r="J285" s="58"/>
+      <c r="K285" s="56"/>
+      <c r="L285" s="57"/>
+      <c r="M285" s="57"/>
+      <c r="N285" s="57"/>
+      <c r="O285" s="58"/>
+      <c r="P285" s="57"/>
+      <c r="Q285" s="57"/>
+      <c r="R285" s="57"/>
+      <c r="S285" s="57"/>
+      <c r="T285" s="58"/>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A286" s="56"/>
+      <c r="B286" s="57"/>
+      <c r="C286" s="57"/>
+      <c r="D286" s="57"/>
+      <c r="E286" s="57"/>
+      <c r="F286" s="56"/>
+      <c r="G286" s="57"/>
+      <c r="H286" s="57"/>
+      <c r="I286" s="57"/>
+      <c r="J286" s="58"/>
+      <c r="K286" s="56"/>
+      <c r="L286" s="57"/>
+      <c r="M286" s="57"/>
+      <c r="N286" s="57"/>
+      <c r="O286" s="58"/>
+      <c r="P286" s="57"/>
+      <c r="Q286" s="57"/>
+      <c r="R286" s="57"/>
+      <c r="S286" s="57"/>
+      <c r="T286" s="58"/>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A287" s="56"/>
+      <c r="B287" s="57"/>
+      <c r="C287" s="57"/>
+      <c r="D287" s="57"/>
+      <c r="E287" s="57"/>
+      <c r="F287" s="56"/>
+      <c r="G287" s="57"/>
+      <c r="H287" s="57"/>
+      <c r="I287" s="57"/>
+      <c r="J287" s="58"/>
+      <c r="K287" s="56"/>
+      <c r="L287" s="57"/>
+      <c r="M287" s="57"/>
+      <c r="N287" s="57"/>
+      <c r="O287" s="58"/>
+      <c r="P287" s="57"/>
+      <c r="Q287" s="57"/>
+      <c r="R287" s="57"/>
+      <c r="S287" s="57"/>
+      <c r="T287" s="58"/>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A288" s="56"/>
+      <c r="B288" s="57"/>
+      <c r="C288" s="57"/>
+      <c r="D288" s="57"/>
+      <c r="E288" s="57"/>
+      <c r="F288" s="56"/>
+      <c r="G288" s="57"/>
+      <c r="H288" s="57"/>
+      <c r="I288" s="57"/>
+      <c r="J288" s="58"/>
+      <c r="K288" s="56"/>
+      <c r="L288" s="57"/>
+      <c r="M288" s="57"/>
+      <c r="N288" s="57"/>
+      <c r="O288" s="58"/>
+      <c r="P288" s="57"/>
+      <c r="Q288" s="57"/>
+      <c r="R288" s="57"/>
+      <c r="S288" s="57"/>
+      <c r="T288" s="58"/>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A289" s="56"/>
+      <c r="B289" s="57"/>
+      <c r="C289" s="57"/>
+      <c r="D289" s="57"/>
+      <c r="E289" s="57"/>
+      <c r="F289" s="56"/>
+      <c r="G289" s="57"/>
+      <c r="H289" s="57"/>
+      <c r="I289" s="57"/>
+      <c r="J289" s="58"/>
+      <c r="K289" s="56"/>
+      <c r="L289" s="57"/>
+      <c r="M289" s="57"/>
+      <c r="N289" s="57"/>
+      <c r="O289" s="58"/>
+      <c r="P289" s="57"/>
+      <c r="Q289" s="57"/>
+      <c r="R289" s="57"/>
+      <c r="S289" s="57"/>
+      <c r="T289" s="58"/>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A290" s="56"/>
+      <c r="B290" s="57"/>
+      <c r="C290" s="57"/>
+      <c r="D290" s="57"/>
+      <c r="E290" s="57"/>
+      <c r="F290" s="56"/>
+      <c r="G290" s="57"/>
+      <c r="H290" s="57"/>
+      <c r="I290" s="57"/>
+      <c r="J290" s="58"/>
+      <c r="K290" s="56"/>
+      <c r="L290" s="57"/>
+      <c r="M290" s="57"/>
+      <c r="N290" s="57"/>
+      <c r="O290" s="58"/>
+      <c r="P290" s="57"/>
+      <c r="Q290" s="57"/>
+      <c r="R290" s="57"/>
+      <c r="S290" s="57"/>
+      <c r="T290" s="58"/>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A291" s="56"/>
+      <c r="B291" s="57"/>
+      <c r="C291" s="57"/>
+      <c r="D291" s="57"/>
+      <c r="E291" s="57"/>
+      <c r="F291" s="56"/>
+      <c r="G291" s="57"/>
+      <c r="H291" s="57"/>
+      <c r="I291" s="57"/>
+      <c r="J291" s="58"/>
+      <c r="K291" s="56"/>
+      <c r="L291" s="57"/>
+      <c r="M291" s="57"/>
+      <c r="N291" s="57"/>
+      <c r="O291" s="58"/>
+      <c r="P291" s="57"/>
+      <c r="Q291" s="57"/>
+      <c r="R291" s="57"/>
+      <c r="S291" s="57"/>
+      <c r="T291" s="58"/>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A292" s="56"/>
+      <c r="B292" s="57"/>
+      <c r="C292" s="57"/>
+      <c r="D292" s="57"/>
+      <c r="E292" s="57"/>
+      <c r="F292" s="56"/>
+      <c r="G292" s="57"/>
+      <c r="H292" s="57"/>
+      <c r="I292" s="57"/>
+      <c r="J292" s="58"/>
+      <c r="K292" s="56"/>
+      <c r="L292" s="57"/>
+      <c r="M292" s="57"/>
+      <c r="N292" s="57"/>
+      <c r="O292" s="58"/>
+      <c r="P292" s="57"/>
+      <c r="Q292" s="57"/>
+      <c r="R292" s="57"/>
+      <c r="S292" s="57"/>
+      <c r="T292" s="58"/>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A293" s="56"/>
+      <c r="B293" s="57"/>
+      <c r="C293" s="57"/>
+      <c r="D293" s="57"/>
+      <c r="E293" s="57"/>
+      <c r="F293" s="56"/>
+      <c r="G293" s="57"/>
+      <c r="H293" s="57"/>
+      <c r="I293" s="57"/>
+      <c r="J293" s="58"/>
+      <c r="K293" s="56"/>
+      <c r="L293" s="57"/>
+      <c r="M293" s="57"/>
+      <c r="N293" s="57"/>
+      <c r="O293" s="58"/>
+      <c r="P293" s="57"/>
+      <c r="Q293" s="57"/>
+      <c r="R293" s="57"/>
+      <c r="S293" s="57"/>
+      <c r="T293" s="58"/>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A294" s="56"/>
+      <c r="B294" s="57"/>
+      <c r="C294" s="57"/>
+      <c r="D294" s="57"/>
+      <c r="E294" s="57"/>
+      <c r="F294" s="56"/>
+      <c r="G294" s="57"/>
+      <c r="H294" s="57"/>
+      <c r="I294" s="57"/>
+      <c r="J294" s="58"/>
+      <c r="K294" s="56"/>
+      <c r="L294" s="57"/>
+      <c r="M294" s="57"/>
+      <c r="N294" s="57"/>
+      <c r="O294" s="58"/>
+      <c r="P294" s="57"/>
+      <c r="Q294" s="57"/>
+      <c r="R294" s="57"/>
+      <c r="S294" s="57"/>
+      <c r="T294" s="58"/>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A295" s="56"/>
+      <c r="B295" s="57"/>
+      <c r="C295" s="57"/>
+      <c r="D295" s="57"/>
+      <c r="E295" s="57"/>
+      <c r="F295" s="56"/>
+      <c r="G295" s="57"/>
+      <c r="H295" s="57"/>
+      <c r="I295" s="57"/>
+      <c r="J295" s="58"/>
+      <c r="K295" s="56"/>
+      <c r="L295" s="57"/>
+      <c r="M295" s="57"/>
+      <c r="N295" s="57"/>
+      <c r="O295" s="58"/>
+      <c r="P295" s="57"/>
+      <c r="Q295" s="57"/>
+      <c r="R295" s="57"/>
+      <c r="S295" s="57"/>
+      <c r="T295" s="58"/>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A296" s="56"/>
+      <c r="B296" s="57"/>
+      <c r="C296" s="57"/>
+      <c r="D296" s="57"/>
+      <c r="E296" s="57"/>
+      <c r="F296" s="56"/>
+      <c r="G296" s="57"/>
+      <c r="H296" s="57"/>
+      <c r="I296" s="57"/>
+      <c r="J296" s="58"/>
+      <c r="K296" s="56"/>
+      <c r="L296" s="57"/>
+      <c r="M296" s="57"/>
+      <c r="N296" s="57"/>
+      <c r="O296" s="58"/>
+      <c r="P296" s="57"/>
+      <c r="Q296" s="57"/>
+      <c r="R296" s="57"/>
+      <c r="S296" s="57"/>
+      <c r="T296" s="58"/>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A297" s="56"/>
+      <c r="B297" s="57"/>
+      <c r="C297" s="57"/>
+      <c r="D297" s="57"/>
+      <c r="E297" s="57"/>
+      <c r="F297" s="56"/>
+      <c r="G297" s="57"/>
+      <c r="H297" s="57"/>
+      <c r="I297" s="57"/>
+      <c r="J297" s="58"/>
+      <c r="K297" s="56"/>
+      <c r="L297" s="57"/>
+      <c r="M297" s="57"/>
+      <c r="N297" s="57"/>
+      <c r="O297" s="58"/>
+      <c r="P297" s="57"/>
+      <c r="Q297" s="57"/>
+      <c r="R297" s="57"/>
+      <c r="S297" s="57"/>
+      <c r="T297" s="58"/>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A298" s="56"/>
+      <c r="B298" s="57"/>
+      <c r="C298" s="57"/>
+      <c r="D298" s="57"/>
+      <c r="E298" s="57"/>
+      <c r="F298" s="56"/>
+      <c r="G298" s="57"/>
+      <c r="H298" s="57"/>
+      <c r="I298" s="57"/>
+      <c r="J298" s="58"/>
+      <c r="K298" s="56"/>
+      <c r="L298" s="57"/>
+      <c r="M298" s="57"/>
+      <c r="N298" s="57"/>
+      <c r="O298" s="58"/>
+      <c r="P298" s="57"/>
+      <c r="Q298" s="57"/>
+      <c r="R298" s="57"/>
+      <c r="S298" s="57"/>
+      <c r="T298" s="58"/>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A299" s="59"/>
+      <c r="B299" s="60"/>
+      <c r="C299" s="60"/>
+      <c r="D299" s="60"/>
+      <c r="E299" s="60"/>
+      <c r="F299" s="59"/>
+      <c r="G299" s="60"/>
+      <c r="H299" s="60"/>
+      <c r="I299" s="60"/>
+      <c r="J299" s="61"/>
+      <c r="K299" s="59"/>
+      <c r="L299" s="60"/>
+      <c r="M299" s="60"/>
+      <c r="N299" s="60"/>
+      <c r="O299" s="61"/>
+      <c r="P299" s="60"/>
+      <c r="Q299" s="60"/>
+      <c r="R299" s="60"/>
+      <c r="S299" s="60"/>
+      <c r="T299" s="61"/>
     </row>
   </sheetData>
   <hyperlinks>
